--- a/TLT.xlsx
+++ b/TLT.xlsx
@@ -516,16 +516,16 @@
         <v>45559</v>
       </c>
       <c r="B2" t="n">
-        <v>93.87959369395169</v>
+        <v>93.8796012730764</v>
       </c>
       <c r="C2" t="n">
-        <v>94.73217309280945</v>
+        <v>94.73218074076495</v>
       </c>
       <c r="D2" t="n">
-        <v>93.7358989765743</v>
+        <v>93.73590654409819</v>
       </c>
       <c r="E2" t="n">
-        <v>94.50226593017578</v>
+        <v>94.50227355957031</v>
       </c>
       <c r="F2" t="n">
         <v>31005400</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.008312207683124684</v>
+        <v>-0.008312287744451585</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.008312207683124684</v>
+        <v>-0.008312287744451585</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -588,16 +588,16 @@
         <v>45561</v>
       </c>
       <c r="B4" t="n">
-        <v>93.9466390907683</v>
+        <v>93.94665435111376</v>
       </c>
       <c r="C4" t="n">
-        <v>94.11907126940804</v>
+        <v>94.11908655776274</v>
       </c>
       <c r="D4" t="n">
-        <v>93.32396692853501</v>
+        <v>93.3239820877359</v>
       </c>
       <c r="E4" t="n">
-        <v>93.93705749511719</v>
+        <v>93.93707275390625</v>
       </c>
       <c r="F4" t="n">
         <v>33332300</v>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002350850208012512</v>
+        <v>0.002351013026186566</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.005980898230273035</v>
+        <v>-0.005980817015029616</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -626,16 +626,16 @@
         <v>45562</v>
       </c>
       <c r="B5" t="n">
-        <v>94.39689118008673</v>
+        <v>94.39687592594152</v>
       </c>
       <c r="C5" t="n">
-        <v>94.60764245974219</v>
+        <v>94.60762717154046</v>
       </c>
       <c r="D5" t="n">
-        <v>94.0807642606035</v>
+        <v>94.08074905754309</v>
       </c>
       <c r="E5" t="n">
-        <v>94.42562866210938</v>
+        <v>94.42561340332031</v>
       </c>
       <c r="F5" t="n">
         <v>28317600</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005201048234000583</v>
+        <v>0.005200722516592871</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0008109569364507241</v>
+        <v>-0.0008111990681544112</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -664,16 +664,16 @@
         <v>45565</v>
       </c>
       <c r="B6" t="n">
-        <v>94.49269184112602</v>
+        <v>94.49268416973474</v>
       </c>
       <c r="C6" t="n">
-        <v>94.55974840674773</v>
+        <v>94.55974072991246</v>
       </c>
       <c r="D6" t="n">
-        <v>93.76464390822062</v>
+        <v>93.76463629593593</v>
       </c>
       <c r="E6" t="n">
-        <v>93.97539520263672</v>
+        <v>93.97538757324219</v>
       </c>
       <c r="F6" t="n">
         <v>34175500</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.004768127740867545</v>
+        <v>-0.004768047713442747</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.005575217931052978</v>
+        <v>-0.005575378945735121</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -702,16 +702,16 @@
         <v>45566</v>
       </c>
       <c r="B7" t="n">
-        <v>94.95183090844176</v>
+        <v>94.95181560162445</v>
       </c>
       <c r="C7" t="n">
-        <v>95.46118670721755</v>
+        <v>95.46117131828895</v>
       </c>
       <c r="D7" t="n">
-        <v>94.55779652388757</v>
+        <v>94.55778128059102</v>
       </c>
       <c r="E7" t="n">
-        <v>94.65390014648438</v>
+        <v>94.65388488769531</v>
       </c>
       <c r="F7" t="n">
         <v>45254200</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007220027565562281</v>
+        <v>0.007219946966691815</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001604556407363011</v>
+        <v>0.001604314080649205</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.00842729232700723</v>
+        <v>-0.008427132479381316</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.006836257985544214</v>
+        <v>-0.006836338166028244</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -805,7 +805,7 @@
         <v>-0.009420559696236119</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01619241630532864</v>
+        <v>-0.01619249573046766</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -843,7 +843,7 @@
         <v>-0.01230096884695531</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02829420274375516</v>
+        <v>-0.02829428119188804</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -854,16 +854,16 @@
         <v>45572</v>
       </c>
       <c r="B11" t="n">
-        <v>91.28059552882186</v>
+        <v>91.28061845320985</v>
       </c>
       <c r="C11" t="n">
-        <v>91.55929376973566</v>
+        <v>91.55931676411646</v>
       </c>
       <c r="D11" t="n">
-        <v>91.06916320903787</v>
+        <v>91.06918608032632</v>
       </c>
       <c r="E11" t="n">
-        <v>91.13643646240234</v>
+        <v>91.13645935058594</v>
       </c>
       <c r="F11" t="n">
         <v>42606600</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.007535394261212858</v>
+        <v>-0.007535145011703048</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.03561638903198716</v>
+        <v>-0.03561622469180836</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -892,16 +892,16 @@
         <v>45573</v>
       </c>
       <c r="B12" t="n">
-        <v>90.71360068048367</v>
+        <v>90.7135855180758</v>
       </c>
       <c r="C12" t="n">
-        <v>91.3286727161202</v>
+        <v>91.32865745090555</v>
       </c>
       <c r="D12" t="n">
-        <v>90.66554519897826</v>
+        <v>90.66553004460269</v>
       </c>
       <c r="E12" t="n">
-        <v>91.29022979736328</v>
+        <v>91.29021453857422</v>
       </c>
       <c r="F12" t="n">
         <v>33709600</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001687506566315999</v>
+        <v>0.001687087572678436</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.03398898535603112</v>
+        <v>-0.0339892248091932</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -930,16 +930,16 @@
         <v>45574</v>
       </c>
       <c r="B13" t="n">
-        <v>90.9826878664673</v>
+        <v>90.98268021930171</v>
       </c>
       <c r="C13" t="n">
-        <v>91.21334536401807</v>
+        <v>91.21333769746553</v>
       </c>
       <c r="D13" t="n">
-        <v>90.55983045209737</v>
+        <v>90.55982284047327</v>
       </c>
       <c r="E13" t="n">
-        <v>90.77125549316406</v>
+        <v>90.77124786376953</v>
       </c>
       <c r="F13" t="n">
         <v>35807700</v>
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.005684883315018374</v>
+        <v>-0.005684800692251635</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.03948064525530459</v>
+        <v>-0.03948080353272043</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -968,16 +968,16 @@
         <v>45575</v>
       </c>
       <c r="B14" t="n">
-        <v>90.22344249257728</v>
+        <v>90.22345010575248</v>
       </c>
       <c r="C14" t="n">
-        <v>90.42526227182447</v>
+        <v>90.42526990202951</v>
       </c>
       <c r="D14" t="n">
-        <v>89.77175479553948</v>
+        <v>89.77176237060067</v>
       </c>
       <c r="E14" t="n">
-        <v>90.41565704345703</v>
+        <v>90.41566467285156</v>
       </c>
       <c r="F14" t="n">
         <v>53667400</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.003917522653785643</v>
+        <v>-0.00391735488148881</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.04324350158691648</v>
+        <v>-0.04324349809576522</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1006,16 +1006,16 @@
         <v>45576</v>
       </c>
       <c r="B15" t="n">
-        <v>89.83903578961328</v>
+        <v>89.83902817813141</v>
       </c>
       <c r="C15" t="n">
-        <v>90.40605226599389</v>
+        <v>90.40604460647239</v>
       </c>
       <c r="D15" t="n">
-        <v>89.78136775326696</v>
+        <v>89.78136014667095</v>
       </c>
       <c r="E15" t="n">
-        <v>90.05046081542969</v>
+        <v>90.05045318603516</v>
       </c>
       <c r="F15" t="n">
         <v>27406400</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.004039081725102256</v>
+        <v>-0.004039250146950057</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.04710791927502955</v>
+        <v>-0.04710807693667729</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1044,16 +1044,16 @@
         <v>45579</v>
       </c>
       <c r="B16" t="n">
-        <v>89.41617378764902</v>
+        <v>89.41616621764901</v>
       </c>
       <c r="C16" t="n">
-        <v>90.12734937812843</v>
+        <v>90.12734174792008</v>
       </c>
       <c r="D16" t="n">
-        <v>89.35851308178849</v>
+        <v>89.35850551667005</v>
       </c>
       <c r="E16" t="n">
-        <v>90.11773681640625</v>
+        <v>90.11772918701172</v>
       </c>
       <c r="F16" t="n">
         <v>28795300</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0007470922454739792</v>
+        <v>0.0007470923087702364</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.04639602099074636</v>
+        <v>-0.04639617870986745</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01215747289685187</v>
+        <v>0.01215755858641332</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.03480260646161126</v>
+        <v>-0.034802684384305</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
         <v>0.00421437303202743</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.03073490459569994</v>
+        <v>-0.03073498284678899</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>-0.01584304383678026</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.04609101399165128</v>
+        <v>-0.0460910910030049</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
         <v>0.0007463804483698322</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.04537903497497031</v>
+        <v>-0.04537911204380374</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1234,16 +1234,16 @@
         <v>45586</v>
       </c>
       <c r="B21" t="n">
-        <v>89.39694957240903</v>
+        <v>89.39694187766516</v>
       </c>
       <c r="C21" t="n">
-        <v>89.46422284067516</v>
+        <v>89.46421514014082</v>
       </c>
       <c r="D21" t="n">
-        <v>88.63772583007812</v>
+        <v>88.63771820068359</v>
       </c>
       <c r="E21" t="n">
-        <v>88.63772583007812</v>
+        <v>88.63771820068359</v>
       </c>
       <c r="F21" t="n">
         <v>49504700</v>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01747091570567538</v>
+        <v>-0.01747100027578308</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0620571373857931</v>
+        <v>-0.06205729384055469</v>
       </c>
       <c r="L21" t="n">
         <v>38008000</v>
       </c>
       <c r="M21" t="n">
-        <v>91.97293281555176</v>
+        <v>91.97293128967286</v>
       </c>
       <c r="N21" t="inlineStr"/>
     </row>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0009757337025100288</v>
+        <v>0.0009758198604001844</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.06114195492371166</v>
+        <v>-0.06114203071996682</v>
       </c>
       <c r="L22" t="n">
         <v>38062575</v>
       </c>
       <c r="M22" t="n">
-        <v>91.68403015136718</v>
+        <v>91.68402824401855</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1318,16 +1318,16 @@
         <v>45588</v>
       </c>
       <c r="B23" t="n">
-        <v>88.26289523116094</v>
+        <v>88.26291045183147</v>
       </c>
       <c r="C23" t="n">
-        <v>88.7722582754501</v>
+        <v>88.77227358395876</v>
       </c>
       <c r="D23" t="n">
-        <v>88.0899131392801</v>
+        <v>88.0899283301204</v>
       </c>
       <c r="E23" t="n">
-        <v>88.48394012451172</v>
+        <v>88.48395538330078</v>
       </c>
       <c r="F23" t="n">
         <v>33354200</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.00270808288747526</v>
+        <v>-0.002707910907486788</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.06368446032935127</v>
+        <v>-0.06368437445556108</v>
       </c>
       <c r="L23" t="n">
         <v>37893375</v>
       </c>
       <c r="M23" t="n">
-        <v>91.42238998413086</v>
+        <v>91.42238883972168</v>
       </c>
       <c r="N23" t="inlineStr"/>
     </row>
@@ -1360,16 +1360,16 @@
         <v>45589</v>
       </c>
       <c r="B24" t="n">
-        <v>88.63771984136753</v>
+        <v>88.63772743535691</v>
       </c>
       <c r="C24" t="n">
-        <v>89.3777257422974</v>
+        <v>89.37773339968639</v>
       </c>
       <c r="D24" t="n">
-        <v>88.37823201541846</v>
+        <v>88.37823958717637</v>
       </c>
       <c r="E24" t="n">
-        <v>89.05097198486328</v>
+        <v>89.05097961425781</v>
       </c>
       <c r="F24" t="n">
         <v>32507400</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006408302563760682</v>
+        <v>0.006408215235188752</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.05768426705599083</v>
+        <v>-0.05768426239900193</v>
       </c>
       <c r="L24" t="n">
         <v>37852130</v>
       </c>
       <c r="M24" t="n">
-        <v>91.17808570861817</v>
+        <v>91.17808418273925</v>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
@@ -1402,16 +1402,16 @@
         <v>45590</v>
       </c>
       <c r="B25" t="n">
-        <v>89.36810010236518</v>
+        <v>89.36811550191773</v>
       </c>
       <c r="C25" t="n">
-        <v>89.4161555689484</v>
+        <v>89.41617097678167</v>
       </c>
       <c r="D25" t="n">
-        <v>88.43587977563487</v>
+        <v>88.43589501455097</v>
       </c>
       <c r="E25" t="n">
-        <v>88.55120849609375</v>
+        <v>88.55122375488281</v>
       </c>
       <c r="F25" t="n">
         <v>28667100</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.005612105939219569</v>
+        <v>-0.005612019783946098</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.06297264277746595</v>
+        <v>-0.06297255696114246</v>
       </c>
       <c r="L25" t="n">
         <v>37869605</v>
@@ -1444,16 +1444,16 @@
         <v>45593</v>
       </c>
       <c r="B26" t="n">
-        <v>88.67615553264184</v>
+        <v>88.67616319358659</v>
       </c>
       <c r="C26" t="n">
-        <v>88.69538065500666</v>
+        <v>88.6953883176123</v>
       </c>
       <c r="D26" t="n">
-        <v>87.85926380579757</v>
+        <v>87.85927139616909</v>
       </c>
       <c r="E26" t="n">
-        <v>88.31095886230469</v>
+        <v>88.31096649169922</v>
       </c>
       <c r="F26" t="n">
         <v>33156500</v>
@@ -1468,16 +1468,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.002713115245622677</v>
+        <v>-0.002713200936089177</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.06551490598591192</v>
+        <v>-0.06551490069673671</v>
       </c>
       <c r="L26" t="n">
         <v>37818655</v>
       </c>
       <c r="M26" t="n">
-        <v>90.60114288330078</v>
+        <v>90.60114364624023</v>
       </c>
       <c r="N26" t="inlineStr"/>
     </row>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001523443351734377</v>
+        <v>0.001523356827740852</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.06409127088214128</v>
+        <v>-0.06409134644029102</v>
       </c>
       <c r="L27" t="n">
         <v>37883205</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29072265625</v>
+        <v>90.29072418212891</v>
       </c>
       <c r="N27" t="inlineStr"/>
     </row>
@@ -1528,16 +1528,16 @@
         <v>45595</v>
       </c>
       <c r="B28" t="n">
-        <v>89.22396286953166</v>
+        <v>89.22394752147235</v>
       </c>
       <c r="C28" t="n">
-        <v>89.65644017791121</v>
+        <v>89.65642475545836</v>
       </c>
       <c r="D28" t="n">
-        <v>88.57045529037747</v>
+        <v>88.57044005473273</v>
       </c>
       <c r="E28" t="n">
-        <v>88.70500183105469</v>
+        <v>88.70498657226562</v>
       </c>
       <c r="F28" t="n">
         <v>41951100</v>
@@ -1552,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002934080744411593</v>
+        <v>0.002933908222465087</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0613452391015098</v>
+        <v>-0.06134547634613596</v>
       </c>
       <c r="L28" t="n">
         <v>38190220</v>
       </c>
       <c r="M28" t="n">
-        <v>90.03316154479981</v>
+        <v>90.03316230773926</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1570,16 +1570,16 @@
         <v>45596</v>
       </c>
       <c r="B29" t="n">
-        <v>88.60889649823045</v>
+        <v>88.60888128070366</v>
       </c>
       <c r="C29" t="n">
-        <v>89.32007949521802</v>
+        <v>89.32006415555399</v>
       </c>
       <c r="D29" t="n">
-        <v>88.29175525064088</v>
+        <v>88.29174008757933</v>
       </c>
       <c r="E29" t="n">
-        <v>88.84915924072266</v>
+        <v>88.84914398193359</v>
       </c>
       <c r="F29" t="n">
         <v>52173800</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001625132818806829</v>
+        <v>0.001625133098357656</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.05981980044404434</v>
+        <v>-0.05982003781182288</v>
       </c>
       <c r="L29" t="n">
         <v>38815020</v>
@@ -1612,16 +1612,16 @@
         <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>88.96583116621461</v>
+        <v>88.96583891487141</v>
       </c>
       <c r="C30" t="n">
-        <v>89.21654249142307</v>
+        <v>89.21655026191607</v>
       </c>
       <c r="D30" t="n">
-        <v>87.5579617857194</v>
+        <v>87.557969411755</v>
       </c>
       <c r="E30" t="n">
-        <v>87.59652709960938</v>
+        <v>87.59653472900391</v>
       </c>
       <c r="F30" t="n">
         <v>80402000</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01409841299363879</v>
+        <v>-0.01409815780762491</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.07307484918582596</v>
+        <v>-0.07307484328631864</v>
       </c>
       <c r="L30" t="n">
         <v>39987415</v>
       </c>
       <c r="M30" t="n">
-        <v>89.61542358398438</v>
+        <v>89.6154239654541</v>
       </c>
       <c r="N30" t="inlineStr"/>
     </row>
@@ -1654,16 +1654,16 @@
         <v>45600</v>
       </c>
       <c r="B31" t="n">
-        <v>88.98511205054062</v>
+        <v>88.98511968241615</v>
       </c>
       <c r="C31" t="n">
-        <v>89.26475839107297</v>
+        <v>89.26476604693258</v>
       </c>
       <c r="D31" t="n">
-        <v>88.35831903603602</v>
+        <v>88.35832661415417</v>
       </c>
       <c r="E31" t="n">
-        <v>88.95618438720703</v>
+        <v>88.95619201660156</v>
       </c>
       <c r="F31" t="n">
         <v>49747600</v>
@@ -1678,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01552181727537594</v>
+        <v>0.01552181592347246</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0586872863669381</v>
+        <v>-0.05868728162897296</v>
       </c>
       <c r="L31" t="n">
         <v>40344465</v>
       </c>
       <c r="M31" t="n">
-        <v>89.50641098022462</v>
+        <v>89.50641059875488</v>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005311559122839205</v>
+        <v>0.005311472901539327</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.05368744823539584</v>
+        <v>-0.05368752463347093</v>
       </c>
       <c r="L32" t="n">
         <v>41008285</v>
       </c>
       <c r="M32" t="n">
-        <v>89.41333351135253</v>
+        <v>89.41333389282227</v>
       </c>
       <c r="N32" t="inlineStr"/>
     </row>
@@ -1738,16 +1738,16 @@
         <v>45602</v>
       </c>
       <c r="B33" t="n">
-        <v>86.43937507658151</v>
+        <v>86.43936749455331</v>
       </c>
       <c r="C33" t="n">
-        <v>87.4808151032836</v>
+        <v>87.48080742990551</v>
       </c>
       <c r="D33" t="n">
-        <v>86.35259208618197</v>
+        <v>86.35258451176594</v>
       </c>
       <c r="E33" t="n">
-        <v>86.97937774658203</v>
+        <v>86.9793701171875</v>
       </c>
       <c r="F33" t="n">
         <v>98895700</v>
@@ -1762,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02738833517210459</v>
+        <v>-0.02738842048471901</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.07960537358069442</v>
+        <v>-0.0796055286187447</v>
       </c>
       <c r="L33" t="n">
         <v>44162685</v>
       </c>
       <c r="M33" t="n">
-        <v>89.22373962402344</v>
+        <v>89.22374000549317</v>
       </c>
       <c r="N33" t="inlineStr"/>
     </row>
@@ -1780,16 +1780,16 @@
         <v>45603</v>
       </c>
       <c r="B34" t="n">
-        <v>87.50973052691691</v>
+        <v>87.50974568880324</v>
       </c>
       <c r="C34" t="n">
-        <v>88.34866943502789</v>
+        <v>88.34868474226829</v>
       </c>
       <c r="D34" t="n">
-        <v>87.41330254318754</v>
+        <v>87.41331768836682</v>
       </c>
       <c r="E34" t="n">
-        <v>88.06902313232422</v>
+        <v>88.06903839111328</v>
       </c>
       <c r="F34" t="n">
         <v>56221400</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01252762912281247</v>
+        <v>0.01252789336664173</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.06807501105428382</v>
+        <v>-0.06807492482603372</v>
       </c>
       <c r="L34" t="n">
         <v>44290385</v>
       </c>
       <c r="M34" t="n">
-        <v>89.10640792846679</v>
+        <v>89.10640869140624</v>
       </c>
       <c r="N34" t="inlineStr"/>
     </row>
@@ -1822,16 +1822,16 @@
         <v>45604</v>
       </c>
       <c r="B35" t="n">
-        <v>88.71509692152397</v>
+        <v>88.71510451049915</v>
       </c>
       <c r="C35" t="n">
-        <v>89.29367216918071</v>
+        <v>89.29367980764906</v>
       </c>
       <c r="D35" t="n">
-        <v>88.56080626509102</v>
+        <v>88.56081384086767</v>
       </c>
       <c r="E35" t="n">
-        <v>89.18759918212891</v>
+        <v>89.18760681152344</v>
       </c>
       <c r="F35" t="n">
         <v>56756200</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01270112929632505</v>
+        <v>0.01270104046603304</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.05623851127520796</v>
+        <v>-0.05623850673493824</v>
       </c>
       <c r="L35" t="n">
         <v>45757875</v>
       </c>
       <c r="M35" t="n">
-        <v>89.06326484680176</v>
+        <v>89.06326637268066</v>
       </c>
       <c r="N35" t="inlineStr"/>
     </row>
@@ -1864,16 +1864,16 @@
         <v>45607</v>
       </c>
       <c r="B36" t="n">
-        <v>88.95617835475143</v>
+        <v>88.95618600155323</v>
       </c>
       <c r="C36" t="n">
-        <v>89.00439602836065</v>
+        <v>89.0044036793073</v>
       </c>
       <c r="D36" t="n">
-        <v>88.34867539498934</v>
+        <v>88.34868298956931</v>
       </c>
       <c r="E36" t="n">
-        <v>88.75367736816406</v>
+        <v>88.75368499755859</v>
       </c>
       <c r="F36" t="n">
         <v>22369200</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.00486527070965026</v>
+        <v>-0.004865270293459401</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.06083016640319661</v>
+        <v>-0.06083016149223164</v>
       </c>
       <c r="L36" t="n">
         <v>45436570</v>
       </c>
       <c r="M36" t="n">
-        <v>88.99506187438965</v>
+        <v>88.99506416320801</v>
       </c>
       <c r="N36" t="inlineStr"/>
     </row>
@@ -1906,16 +1906,16 @@
         <v>45608</v>
       </c>
       <c r="B37" t="n">
-        <v>88.10759901821514</v>
+        <v>88.10761439650261</v>
       </c>
       <c r="C37" t="n">
-        <v>88.57045629983047</v>
+        <v>88.57047175890499</v>
       </c>
       <c r="D37" t="n">
-        <v>87.27830508525517</v>
+        <v>87.27832031879781</v>
       </c>
       <c r="E37" t="n">
-        <v>87.42295074462891</v>
+        <v>87.42296600341797</v>
       </c>
       <c r="F37" t="n">
         <v>57908400</v>
@@ -1930,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01499348154347557</v>
+        <v>-0.01499339429317481</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.07491159196941932</v>
+        <v>-0.07491150518923595</v>
       </c>
       <c r="L37" t="n">
         <v>46010535</v>
       </c>
       <c r="M37" t="n">
-        <v>88.80554237365723</v>
+        <v>88.80554542541503</v>
       </c>
       <c r="N37" t="inlineStr"/>
     </row>
@@ -1948,16 +1948,16 @@
         <v>45609</v>
       </c>
       <c r="B38" t="n">
-        <v>88.25223121200435</v>
+        <v>88.25223898752928</v>
       </c>
       <c r="C38" t="n">
-        <v>88.27152122231035</v>
+        <v>88.27152899953484</v>
       </c>
       <c r="D38" t="n">
-        <v>86.51650549061372</v>
+        <v>86.51651311321132</v>
       </c>
       <c r="E38" t="n">
-        <v>86.59365081787109</v>
+        <v>86.59365844726562</v>
       </c>
       <c r="F38" t="n">
         <v>49009100</v>
@@ -1972,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.009486066527087167</v>
+        <v>-0.009486152141302551</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.08368704215143452</v>
+        <v>-0.08368703539517941</v>
       </c>
       <c r="L38" t="n">
         <v>46846915</v>
       </c>
       <c r="M38" t="n">
-        <v>88.55533752441406</v>
+        <v>88.5553409576416</v>
       </c>
       <c r="N38" t="inlineStr"/>
     </row>
@@ -1990,16 +1990,16 @@
         <v>45610</v>
       </c>
       <c r="B39" t="n">
-        <v>87.32652907989248</v>
+        <v>87.32651378055783</v>
       </c>
       <c r="C39" t="n">
-        <v>87.77974878366688</v>
+        <v>87.77973340492956</v>
       </c>
       <c r="D39" t="n">
-        <v>87.04688272315965</v>
+        <v>87.04686747281816</v>
       </c>
       <c r="E39" t="n">
-        <v>87.09510040283203</v>
+        <v>87.09508514404297</v>
       </c>
       <c r="F39" t="n">
         <v>53328300</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005790835473787892</v>
+        <v>0.005790570646494908</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.07838082457003359</v>
+        <v>-0.07838106043933601</v>
       </c>
       <c r="L39" t="n">
         <v>47341970</v>
       </c>
       <c r="M39" t="n">
-        <v>88.4027645111084</v>
+        <v>88.40276718139648</v>
       </c>
       <c r="N39" t="inlineStr"/>
     </row>
@@ -2032,16 +2032,16 @@
         <v>45611</v>
       </c>
       <c r="B40" t="n">
-        <v>86.70937204635983</v>
+        <v>86.70937966220274</v>
       </c>
       <c r="C40" t="n">
-        <v>87.41331036887313</v>
+        <v>87.41331804654422</v>
       </c>
       <c r="D40" t="n">
-        <v>86.31401507057998</v>
+        <v>86.31402265169797</v>
       </c>
       <c r="E40" t="n">
-        <v>86.86366271972656</v>
+        <v>86.86367034912109</v>
       </c>
       <c r="F40" t="n">
         <v>73722400</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.002657298539585184</v>
+        <v>-0.002657036209783192</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.08082984185895736</v>
+        <v>-0.08082983533337074</v>
       </c>
       <c r="L40" t="n">
         <v>49765160</v>
       </c>
       <c r="M40" t="n">
-        <v>88.23525543212891</v>
+        <v>88.23525848388672</v>
       </c>
       <c r="N40" t="inlineStr"/>
     </row>
@@ -2074,16 +2074,16 @@
         <v>45614</v>
       </c>
       <c r="B41" t="n">
-        <v>86.45866662872967</v>
+        <v>86.45867420908824</v>
       </c>
       <c r="C41" t="n">
-        <v>87.35545364008813</v>
+        <v>87.3554612990735</v>
       </c>
       <c r="D41" t="n">
-        <v>86.22723060291001</v>
+        <v>86.22723816297717</v>
       </c>
       <c r="E41" t="n">
-        <v>87.01795196533203</v>
+        <v>87.01795959472656</v>
       </c>
       <c r="F41" t="n">
         <v>36010600</v>
@@ -2098,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.001776223115335318</v>
+        <v>0.001776222959326335</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.07919719057714081</v>
+        <v>-0.07919718418336208</v>
       </c>
       <c r="L41" t="n">
         <v>49090455</v>
       </c>
       <c r="M41" t="n">
-        <v>88.15426673889161</v>
+        <v>88.15427055358887</v>
       </c>
       <c r="N41" t="inlineStr"/>
     </row>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005097576045206553</v>
+        <v>0.005097487922180122</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.07450332823346795</v>
+        <v>-0.07450340295102731</v>
       </c>
       <c r="L42" t="n">
         <v>48964865</v>
       </c>
       <c r="M42" t="n">
-        <v>88.09113273620605</v>
+        <v>88.09113655090331</v>
       </c>
       <c r="N42" t="inlineStr"/>
     </row>
@@ -2158,16 +2158,16 @@
         <v>45616</v>
       </c>
       <c r="B43" t="n">
-        <v>86.9311736985793</v>
+        <v>86.93116609112548</v>
       </c>
       <c r="C43" t="n">
-        <v>87.58689442674095</v>
+        <v>87.5868867619042</v>
       </c>
       <c r="D43" t="n">
-        <v>86.89260102551272</v>
+        <v>86.89259342143444</v>
       </c>
       <c r="E43" t="n">
-        <v>87.18189239501953</v>
+        <v>87.181884765625</v>
       </c>
       <c r="F43" t="n">
         <v>27755400</v>
@@ -2182,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.00319729359255494</v>
+        <v>-0.003197380823984575</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.07746241281203803</v>
+        <v>-0.0774625680230947</v>
       </c>
       <c r="L43" t="n">
         <v>48684925</v>
       </c>
       <c r="M43" t="n">
-        <v>88.02603034973144</v>
+        <v>88.02603302001953</v>
       </c>
       <c r="N43" t="inlineStr"/>
     </row>
@@ -2200,16 +2200,16 @@
         <v>45617</v>
       </c>
       <c r="B44" t="n">
-        <v>87.22045288863448</v>
+        <v>87.22043761126588</v>
       </c>
       <c r="C44" t="n">
-        <v>87.60617224098856</v>
+        <v>87.60615689605807</v>
       </c>
       <c r="D44" t="n">
-        <v>86.78652321535162</v>
+        <v>86.78650801398931</v>
       </c>
       <c r="E44" t="n">
-        <v>87.1143798828125</v>
+        <v>87.11436462402344</v>
       </c>
       <c r="F44" t="n">
         <v>28365700</v>
@@ -2224,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0007743868635143869</v>
+        <v>-0.0007744744425184358</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.07817681380065467</v>
+        <v>-0.07817704968642736</v>
       </c>
       <c r="L44" t="n">
         <v>48477840</v>
       </c>
       <c r="M44" t="n">
-        <v>87.9292007446289</v>
+        <v>87.92920227050782</v>
       </c>
       <c r="N44" t="inlineStr"/>
     </row>
@@ -2242,16 +2242,16 @@
         <v>45618</v>
       </c>
       <c r="B45" t="n">
-        <v>87.27832330870186</v>
+        <v>87.27830802965507</v>
       </c>
       <c r="C45" t="n">
-        <v>87.46153431564423</v>
+        <v>87.46151900452429</v>
       </c>
       <c r="D45" t="n">
-        <v>86.93117659651527</v>
+        <v>86.93116137824039</v>
       </c>
       <c r="E45" t="n">
-        <v>87.16260528564453</v>
+        <v>87.16259002685547</v>
       </c>
       <c r="F45" t="n">
         <v>21547500</v>
@@ -2266,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0005535871677775361</v>
+        <v>0.0005535872647428608</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.07766650431381494</v>
+        <v>-0.07766674024078613</v>
       </c>
       <c r="L45" t="n">
         <v>48121860</v>
@@ -2284,16 +2284,16 @@
         <v>45621</v>
       </c>
       <c r="B46" t="n">
-        <v>88.90795457383011</v>
+        <v>88.90796215961817</v>
       </c>
       <c r="C46" t="n">
-        <v>89.46724717854782</v>
+        <v>89.46725481205574</v>
       </c>
       <c r="D46" t="n">
-        <v>88.70545360115305</v>
+        <v>88.70546116966335</v>
       </c>
       <c r="E46" t="n">
-        <v>89.41903686523438</v>
+        <v>89.41904449462891</v>
       </c>
       <c r="F46" t="n">
         <v>56858000</v>
@@ -2308,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02588761054347999</v>
+        <v>0.02588787766722178</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.05378949398628452</v>
+        <v>-0.05378948964372976</v>
       </c>
       <c r="L46" t="n">
         <v>49306935</v>
@@ -2326,16 +2326,16 @@
         <v>45622</v>
       </c>
       <c r="B47" t="n">
-        <v>88.86939842052556</v>
+        <v>88.86940603257499</v>
       </c>
       <c r="C47" t="n">
-        <v>89.13939974524149</v>
+        <v>89.13940738041771</v>
       </c>
       <c r="D47" t="n">
-        <v>88.5318894076463</v>
+        <v>88.53189699078663</v>
       </c>
       <c r="E47" t="n">
-        <v>89.0718994140625</v>
+        <v>89.07190704345703</v>
       </c>
       <c r="F47" t="n">
         <v>31122200</v>
@@ -2350,16 +2350,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.003882142587769644</v>
+        <v>-0.003882142256538268</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.05746281808867548</v>
+        <v>-0.0574628134495645</v>
       </c>
       <c r="L47" t="n">
         <v>48535785</v>
       </c>
       <c r="M47" t="n">
-        <v>87.94649467468261</v>
+        <v>87.94649505615234</v>
       </c>
       <c r="N47" t="inlineStr"/>
     </row>
@@ -2392,16 +2392,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.006928665012053248</v>
+        <v>0.006928578764253013</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.05093229369380725</v>
+        <v>-0.05093237031431241</v>
       </c>
       <c r="L48" t="n">
         <v>48410340</v>
       </c>
       <c r="M48" t="n">
-        <v>87.99569702148438</v>
+        <v>87.99569816589356</v>
       </c>
       <c r="N48" t="inlineStr"/>
     </row>
@@ -2410,16 +2410,16 @@
         <v>45625</v>
       </c>
       <c r="B49" t="n">
-        <v>90.43155825908828</v>
+        <v>90.43156587305656</v>
       </c>
       <c r="C49" t="n">
-        <v>90.63405926878157</v>
+        <v>90.63406689979962</v>
       </c>
       <c r="D49" t="n">
-        <v>90.10370158348529</v>
+        <v>90.10370916984938</v>
       </c>
       <c r="E49" t="n">
-        <v>90.61477661132812</v>
+        <v>90.61478424072266</v>
       </c>
       <c r="F49" t="n">
         <v>31905700</v>
@@ -2434,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01032152594953106</v>
+        <v>0.01032161101448215</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.04113646673530591</v>
+        <v>-0.04113646341426014</v>
       </c>
       <c r="L49" t="n">
         <v>47396935</v>
       </c>
       <c r="M49" t="n">
-        <v>88.08397789001465</v>
+        <v>88.083980178833</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2452,16 +2452,16 @@
         <v>45628</v>
       </c>
       <c r="B50" t="n">
-        <v>90.25189834347822</v>
+        <v>90.25190592410654</v>
       </c>
       <c r="C50" t="n">
-        <v>91.10342738908649</v>
+        <v>91.10343504123826</v>
       </c>
       <c r="D50" t="n">
-        <v>89.9906384479047</v>
+        <v>89.99064600658873</v>
       </c>
       <c r="E50" t="n">
-        <v>90.83248901367188</v>
+        <v>90.83249664306641</v>
       </c>
       <c r="F50" t="n">
         <v>39406000</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.002402614788508339</v>
+        <v>0.002402614586217933</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.03883268703012277</v>
+        <v>-0.03883268389506678</v>
       </c>
       <c r="L50" t="n">
         <v>45347135</v>
       </c>
       <c r="M50" t="n">
-        <v>88.24577598571777</v>
+        <v>88.24577827453614</v>
       </c>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2494,16 +2494,16 @@
         <v>45629</v>
       </c>
       <c r="B51" t="n">
-        <v>90.89054902717822</v>
+        <v>90.89054132645772</v>
       </c>
       <c r="C51" t="n">
-        <v>90.98731168218957</v>
+        <v>90.98730397327084</v>
       </c>
       <c r="D51" t="n">
-        <v>89.98096382853329</v>
+        <v>89.98095620487759</v>
       </c>
       <c r="E51" t="n">
-        <v>90.04869842529297</v>
+        <v>90.04869079589844</v>
       </c>
       <c r="F51" t="n">
         <v>32768900</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.008628967420026723</v>
+        <v>-0.008629134683460271</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.04712656845893448</v>
+        <v>-0.04712672611907631</v>
       </c>
       <c r="L51" t="n">
         <v>44498200</v>
       </c>
       <c r="M51" t="n">
-        <v>88.30040168762207</v>
+        <v>88.30040321350097</v>
       </c>
       <c r="N51" t="n">
-        <v>89.82280700683594</v>
+        <v>89.82280761718749</v>
       </c>
     </row>
     <row r="52">
@@ -2538,16 +2538,16 @@
         <v>45630</v>
       </c>
       <c r="B52" t="n">
-        <v>89.61326517178122</v>
+        <v>89.61325765999884</v>
       </c>
       <c r="C52" t="n">
-        <v>91.14214026221478</v>
+        <v>91.1421326222753</v>
       </c>
       <c r="D52" t="n">
-        <v>89.5455305732186</v>
+        <v>89.54552306711403</v>
       </c>
       <c r="E52" t="n">
-        <v>91.01634216308594</v>
+        <v>91.01633453369141</v>
       </c>
       <c r="F52" t="n">
         <v>35851100</v>
@@ -2562,19 +2562,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01074578261223569</v>
+        <v>0.01074578352267452</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.03688719770661919</v>
+        <v>-0.03688735619340977</v>
       </c>
       <c r="L52" t="n">
         <v>43941455</v>
       </c>
       <c r="M52" t="n">
-        <v>88.37978477478028</v>
+        <v>88.37978591918946</v>
       </c>
       <c r="N52" t="n">
-        <v>89.75308853149414</v>
+        <v>89.75308883666992</v>
       </c>
     </row>
     <row r="53">
@@ -2582,16 +2582,16 @@
         <v>45631</v>
       </c>
       <c r="B53" t="n">
-        <v>90.68733900253579</v>
+        <v>90.68735417551966</v>
       </c>
       <c r="C53" t="n">
-        <v>91.33565686731193</v>
+        <v>91.33567214876646</v>
       </c>
       <c r="D53" t="n">
-        <v>90.62928289002356</v>
+        <v>90.62929805329401</v>
       </c>
       <c r="E53" t="n">
-        <v>91.20018768310547</v>
+        <v>91.20020294189453</v>
       </c>
       <c r="F53" t="n">
         <v>23695800</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0020199176944522</v>
+        <v>0.002020169337132227</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.03494178911551338</v>
+        <v>-0.03494170556218734</v>
       </c>
       <c r="L53" t="n">
         <v>40181460</v>
       </c>
       <c r="M53" t="n">
-        <v>88.59082527160645</v>
+        <v>88.5908275604248</v>
       </c>
       <c r="N53" t="n">
-        <v>89.70275741577149</v>
+        <v>89.70275802612305</v>
       </c>
     </row>
     <row r="54">
@@ -2626,16 +2626,16 @@
         <v>45632</v>
       </c>
       <c r="B54" t="n">
-        <v>91.65500155867169</v>
+        <v>91.65498624653557</v>
       </c>
       <c r="C54" t="n">
-        <v>91.78079229253036</v>
+        <v>91.78077695937931</v>
       </c>
       <c r="D54" t="n">
-        <v>90.97764809765476</v>
+        <v>90.97763289867918</v>
       </c>
       <c r="E54" t="n">
-        <v>91.33567810058594</v>
+        <v>91.33566284179688</v>
       </c>
       <c r="F54" t="n">
         <v>31761500</v>
@@ -2650,16 +2650,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.001485637485212798</v>
+        <v>0.001485302614826933</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.03350806246201099</v>
+        <v>-0.03350830195399845</v>
       </c>
       <c r="L54" t="n">
         <v>38958465</v>
       </c>
       <c r="M54" t="n">
-        <v>88.75415802001953</v>
+        <v>88.75415878295898</v>
       </c>
       <c r="N54" t="n">
         <v>89.65072982788087</v>
@@ -2670,16 +2670,16 @@
         <v>45635</v>
       </c>
       <c r="B55" t="n">
-        <v>90.94861282817882</v>
+        <v>90.94860516044143</v>
       </c>
       <c r="C55" t="n">
-        <v>90.99699785103137</v>
+        <v>90.99699017921471</v>
       </c>
       <c r="D55" t="n">
-        <v>90.44544255009512</v>
+        <v>90.44543492477924</v>
       </c>
       <c r="E55" t="n">
-        <v>90.49382019042969</v>
+        <v>90.49381256103516</v>
       </c>
       <c r="F55" t="n">
         <v>30509600</v>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.009217185744536005</v>
+        <v>-0.009217103752998335</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.04241639817089515</v>
+        <v>-0.04241655621130003</v>
       </c>
       <c r="L55" t="n">
         <v>37646135</v>
@@ -2706,7 +2706,7 @@
         <v>88.81946907043456</v>
       </c>
       <c r="N55" t="n">
-        <v>89.57209365844727</v>
+        <v>89.57209381103516</v>
       </c>
     </row>
     <row r="56">
@@ -2738,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.004705002172629036</v>
+        <v>-0.004704918260834412</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.04692183109797499</v>
+        <v>-0.04692190804225416</v>
       </c>
       <c r="L56" t="n">
         <v>37963000</v>
       </c>
       <c r="M56" t="n">
-        <v>88.88518753051758</v>
+        <v>88.88518714904785</v>
       </c>
       <c r="N56" t="n">
-        <v>89.49394668579102</v>
+        <v>89.49394699096679</v>
       </c>
     </row>
     <row r="57">
@@ -2758,16 +2758,16 @@
         <v>45637</v>
       </c>
       <c r="B57" t="n">
-        <v>90.05837278011829</v>
+        <v>90.05836507873249</v>
       </c>
       <c r="C57" t="n">
-        <v>90.27125504090189</v>
+        <v>90.27124732131136</v>
       </c>
       <c r="D57" t="n">
-        <v>89.12943804603105</v>
+        <v>89.12943042408357</v>
       </c>
       <c r="E57" t="n">
-        <v>89.21652221679688</v>
+        <v>89.21651458740234</v>
       </c>
       <c r="F57" t="n">
         <v>38748400</v>
@@ -2782,19 +2782,19 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.009454233609554441</v>
+        <v>-0.009454318316560073</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.05593245475494113</v>
+        <v>-0.05593261170416242</v>
       </c>
       <c r="L57" t="n">
         <v>37005000</v>
       </c>
       <c r="M57" t="n">
-        <v>88.97486610412598</v>
+        <v>88.97486457824706</v>
       </c>
       <c r="N57" t="n">
-        <v>89.38519912719727</v>
+        <v>89.38519958496094</v>
       </c>
     </row>
     <row r="58">
@@ -2802,16 +2802,16 @@
         <v>45638</v>
       </c>
       <c r="B58" t="n">
-        <v>88.67465881323024</v>
+        <v>88.67465113692703</v>
       </c>
       <c r="C58" t="n">
-        <v>88.78109995964161</v>
+        <v>88.78109227412411</v>
       </c>
       <c r="D58" t="n">
-        <v>88.05536889730121</v>
+        <v>88.0553612746081</v>
       </c>
       <c r="E58" t="n">
-        <v>88.13278198242188</v>
+        <v>88.13277435302734</v>
       </c>
       <c r="F58" t="n">
         <v>45368400</v>
@@ -2826,19 +2826,19 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.01214730419261922</v>
+        <v>-0.01214730523140195</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.06740033040541216</v>
+        <v>-0.06740048642880447</v>
       </c>
       <c r="L58" t="n">
         <v>36822965</v>
       </c>
       <c r="M58" t="n">
-        <v>89.05182266235352</v>
+        <v>89.05182037353515</v>
       </c>
       <c r="N58" t="n">
-        <v>89.27073028564453</v>
+        <v>89.27073059082031</v>
       </c>
     </row>
     <row r="59">
@@ -2870,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.01021092926260458</v>
+        <v>-0.01021084357948188</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.07692303966197089</v>
+        <v>-0.07692311418418085</v>
       </c>
       <c r="L59" t="n">
         <v>36130850</v>
       </c>
       <c r="M59" t="n">
-        <v>89.05871086120605</v>
+        <v>89.05870933532715</v>
       </c>
       <c r="N59" t="n">
-        <v>89.15594665527344</v>
+        <v>89.15594696044921</v>
       </c>
     </row>
     <row r="60">
@@ -2890,16 +2890,16 @@
         <v>45642</v>
       </c>
       <c r="B60" t="n">
-        <v>87.61991582079673</v>
+        <v>87.61992346116072</v>
       </c>
       <c r="C60" t="n">
-        <v>87.68765041120281</v>
+        <v>87.68765805747319</v>
       </c>
       <c r="D60" t="n">
-        <v>87.13609520860574</v>
+        <v>87.13610280678108</v>
       </c>
       <c r="E60" t="n">
-        <v>87.49411773681641</v>
+        <v>87.49412536621094</v>
       </c>
       <c r="F60" t="n">
         <v>23482300</v>
@@ -2914,19 +2914,19 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.002994896003825964</v>
+        <v>0.00299498346392002</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.07415852016223068</v>
+        <v>-0.07415851417523567</v>
       </c>
       <c r="L60" t="n">
         <v>33618845</v>
       </c>
       <c r="M60" t="n">
-        <v>89.09023361206054</v>
+        <v>89.09023208618164</v>
       </c>
       <c r="N60" t="n">
-        <v>89.0692610168457</v>
+        <v>89.06926147460938</v>
       </c>
     </row>
     <row r="61">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.002433199288212506</v>
+        <v>0.002433111877105265</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.07190576333249177</v>
+        <v>-0.0719058382597586</v>
       </c>
       <c r="L61" t="n">
         <v>33010310</v>
       </c>
       <c r="M61" t="n">
-        <v>89.12468643188477</v>
+        <v>89.12468452453614</v>
       </c>
       <c r="N61" t="n">
         <v>89.00067245483399</v>
@@ -2978,16 +2978,16 @@
         <v>45644</v>
       </c>
       <c r="B62" t="n">
-        <v>87.39714764089908</v>
+        <v>87.39713224348752</v>
       </c>
       <c r="C62" t="n">
-        <v>87.78571040559291</v>
+        <v>87.78569493972533</v>
       </c>
       <c r="D62" t="n">
-        <v>86.59088120112258</v>
+        <v>86.59086594575703</v>
       </c>
       <c r="E62" t="n">
-        <v>86.61031341552734</v>
+        <v>86.61029815673828</v>
       </c>
       <c r="F62" t="n">
         <v>61328400</v>
@@ -3002,16 +3002,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.01250407426696032</v>
+        <v>-0.01250424824153029</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.08351072259452019</v>
+        <v>-0.08351095804967357</v>
       </c>
       <c r="L62" t="n">
         <v>34597475</v>
       </c>
       <c r="M62" t="n">
-        <v>89.08212547302246</v>
+        <v>89.08212280273438</v>
       </c>
       <c r="N62" t="n">
         <v>88.90707412719726</v>
@@ -3046,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.01514157580385167</v>
+        <v>-0.01514140229391958</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.09738781446177247</v>
+        <v>-0.09738788733181236</v>
       </c>
       <c r="L63" t="n">
         <v>38163870</v>
       </c>
       <c r="M63" t="n">
-        <v>88.98797569274902</v>
+        <v>88.98797340393067</v>
       </c>
       <c r="N63" t="n">
-        <v>88.797626953125</v>
+        <v>88.79762710571289</v>
       </c>
     </row>
     <row r="64">
@@ -3066,16 +3066,16 @@
         <v>45646</v>
       </c>
       <c r="B64" t="n">
-        <v>85.99831680523548</v>
+        <v>85.99830150843314</v>
       </c>
       <c r="C64" t="n">
-        <v>86.36745473305942</v>
+        <v>86.36743937059731</v>
       </c>
       <c r="D64" t="n">
-        <v>85.76518213217979</v>
+        <v>85.76516687684588</v>
       </c>
       <c r="E64" t="n">
-        <v>85.78460693359375</v>
+        <v>85.78459167480469</v>
       </c>
       <c r="F64" t="n">
         <v>45542400</v>
@@ -3090,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005694213668921311</v>
+        <v>0.005694034782796953</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.09224814781714574</v>
+        <v>-0.09224838256690582</v>
       </c>
       <c r="L64" t="n">
         <v>39022705</v>
       </c>
       <c r="M64" t="n">
-        <v>88.92148704528809</v>
+        <v>88.92148475646972</v>
       </c>
       <c r="N64" t="n">
-        <v>88.70500595092773</v>
+        <v>88.70500564575195</v>
       </c>
     </row>
     <row r="65">
@@ -3110,16 +3110,16 @@
         <v>45649</v>
       </c>
       <c r="B65" t="n">
-        <v>85.63888645358915</v>
+        <v>85.63890182747373</v>
       </c>
       <c r="C65" t="n">
-        <v>85.70688436270692</v>
+        <v>85.70689974879846</v>
       </c>
       <c r="D65" t="n">
-        <v>84.93947515339724</v>
+        <v>84.93949040172356</v>
       </c>
       <c r="E65" t="n">
-        <v>84.99775695800781</v>
+        <v>84.99777221679688</v>
       </c>
       <c r="F65" t="n">
         <v>32764600</v>
@@ -3134,19 +3134,19 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.009172391221598075</v>
+        <v>-0.009172037106506492</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.1005744029374972</v>
+        <v>-0.1005743140854934</v>
       </c>
       <c r="L65" t="n">
         <v>39583560</v>
       </c>
       <c r="M65" t="n">
-        <v>88.81324462890625</v>
+        <v>88.8132438659668</v>
       </c>
       <c r="N65" t="n">
-        <v>88.60395187377929</v>
+        <v>88.60395202636718</v>
       </c>
     </row>
     <row r="66">
@@ -3154,16 +3154,16 @@
         <v>45650</v>
       </c>
       <c r="B66" t="n">
-        <v>84.55092664215077</v>
+        <v>84.55091908482193</v>
       </c>
       <c r="C66" t="n">
-        <v>85.376617794212</v>
+        <v>85.37661016308125</v>
       </c>
       <c r="D66" t="n">
-        <v>84.49264482778945</v>
+        <v>84.49263727566995</v>
       </c>
       <c r="E66" t="n">
-        <v>85.35719299316406</v>
+        <v>85.35718536376953</v>
       </c>
       <c r="F66" t="n">
         <v>22377600</v>
@@ -3178,19 +3178,19 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.004228770829021178</v>
+        <v>0.004228500790066869</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.09677093820976435</v>
+        <v>-0.0967710918619975</v>
       </c>
       <c r="L66" t="n">
         <v>37859540</v>
       </c>
       <c r="M66" t="n">
-        <v>88.61015243530274</v>
+        <v>88.61015090942382</v>
       </c>
       <c r="N66" t="n">
-        <v>88.50874099731445</v>
+        <v>88.50874114990235</v>
       </c>
     </row>
     <row r="67">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.0005690950378881565</v>
+        <v>-0.0005690057067715415</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.09728496138690557</v>
+        <v>-0.09728503426524904</v>
       </c>
       <c r="L67" t="n">
         <v>37302520</v>
       </c>
       <c r="M67" t="n">
-        <v>88.42198829650879</v>
+        <v>88.42198638916015</v>
       </c>
       <c r="N67" t="n">
-        <v>88.39064651489258</v>
+        <v>88.39064666748047</v>
       </c>
     </row>
     <row r="68">
@@ -3269,16 +3269,16 @@
         <v>-0.008198669042122964</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.1046860232278416</v>
+        <v>-0.1046860955086796</v>
       </c>
       <c r="L68" t="n">
         <v>36693525</v>
       </c>
       <c r="M68" t="n">
-        <v>88.16799583435059</v>
+        <v>88.16799392700196</v>
       </c>
       <c r="N68" t="n">
-        <v>88.2508755493164</v>
+        <v>88.25087570190429</v>
       </c>
     </row>
     <row r="69">
@@ -3313,16 +3313,16 @@
         <v>0.008036864544368694</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.09749050607184373</v>
+        <v>-0.09749057893359303</v>
       </c>
       <c r="L69" t="n">
         <v>37524220</v>
       </c>
       <c r="M69" t="n">
-        <v>87.90171661376954</v>
+        <v>87.90171432495117</v>
       </c>
       <c r="N69" t="n">
-        <v>88.15372817993165</v>
+        <v>88.15372833251953</v>
       </c>
     </row>
     <row r="70">
@@ -3357,16 +3357,16 @@
         <v>-0.005353150207643376</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.1023217749566654</v>
+        <v>-0.1023218474283748</v>
       </c>
       <c r="L70" t="n">
         <v>37149785</v>
       </c>
       <c r="M70" t="n">
-        <v>87.60172348022461</v>
+        <v>87.60172080993652</v>
       </c>
       <c r="N70" t="n">
-        <v>88.04610382080078</v>
+        <v>88.04610397338867</v>
       </c>
     </row>
     <row r="71">
@@ -3374,16 +3374,16 @@
         <v>45659</v>
       </c>
       <c r="B71" t="n">
-        <v>85.28919899427463</v>
+        <v>85.28919134484143</v>
       </c>
       <c r="C71" t="n">
-        <v>85.60004770385703</v>
+        <v>85.60004002654436</v>
       </c>
       <c r="D71" t="n">
-        <v>84.71606728557148</v>
+        <v>84.71605968754142</v>
       </c>
       <c r="E71" t="n">
-        <v>85.06577301025391</v>
+        <v>85.06576538085938</v>
       </c>
       <c r="F71" t="n">
         <v>27841300</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.002748313679909131</v>
+        <v>0.002748223745235867</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.09985467361062228</v>
+        <v>-0.09985482701389803</v>
       </c>
       <c r="L71" t="n">
         <v>36903405</v>
       </c>
       <c r="M71" t="n">
-        <v>87.35257720947266</v>
+        <v>87.35257453918457</v>
       </c>
       <c r="N71" t="n">
-        <v>87.9746647644043</v>
+        <v>87.97466491699218</v>
       </c>
     </row>
     <row r="72">
@@ -3418,16 +3418,16 @@
         <v>45660</v>
       </c>
       <c r="B72" t="n">
-        <v>85.21148109515805</v>
+        <v>85.21148876213583</v>
       </c>
       <c r="C72" t="n">
-        <v>85.36690173728365</v>
+        <v>85.36690941824556</v>
       </c>
       <c r="D72" t="n">
-        <v>84.6869225319513</v>
+        <v>84.68693015173146</v>
       </c>
       <c r="E72" t="n">
-        <v>84.79377746582031</v>
+        <v>84.79378509521484</v>
       </c>
       <c r="F72" t="n">
         <v>21962200</v>
@@ -3442,19 +3442,19 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.003197473376287396</v>
+        <v>-0.003197294286682917</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.1027328643265418</v>
+        <v>-0.1027328560326717</v>
       </c>
       <c r="L72" t="n">
         <v>36208960</v>
       </c>
       <c r="M72" t="n">
-        <v>87.04144897460938</v>
+        <v>87.04144706726075</v>
       </c>
       <c r="N72" t="n">
-        <v>87.89605606079101</v>
+        <v>87.8960563659668</v>
       </c>
     </row>
     <row r="73">
@@ -3462,16 +3462,16 @@
         <v>45663</v>
       </c>
       <c r="B73" t="n">
-        <v>84.56062891547208</v>
+        <v>84.56064420059995</v>
       </c>
       <c r="C73" t="n">
-        <v>84.73548174117033</v>
+        <v>84.73549705790448</v>
       </c>
       <c r="D73" t="n">
-        <v>84.19149105498896</v>
+        <v>84.1915062733917</v>
       </c>
       <c r="E73" t="n">
-        <v>84.4149169921875</v>
+        <v>84.41493225097656</v>
       </c>
       <c r="F73" t="n">
         <v>30231500</v>
@@ -3486,19 +3486,19 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.0044680221232688</v>
+        <v>-0.004467931745385179</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.1067418737392128</v>
+        <v>-0.1067417843892944</v>
       </c>
       <c r="L73" t="n">
         <v>36535745</v>
       </c>
       <c r="M73" t="n">
-        <v>86.70218544006347</v>
+        <v>86.70218353271484</v>
       </c>
       <c r="N73" t="n">
-        <v>87.81467559814453</v>
+        <v>87.81467590332031</v>
       </c>
     </row>
     <row r="74">
@@ -3506,16 +3506,16 @@
         <v>45664</v>
       </c>
       <c r="B74" t="n">
-        <v>84.12349836760178</v>
+        <v>84.12350605737797</v>
       </c>
       <c r="C74" t="n">
-        <v>84.28863509900761</v>
+        <v>84.28864280387903</v>
       </c>
       <c r="D74" t="n">
-        <v>83.33666430872492</v>
+        <v>83.33667192657616</v>
       </c>
       <c r="E74" t="n">
-        <v>83.46294403076172</v>
+        <v>83.46295166015625</v>
       </c>
       <c r="F74" t="n">
         <v>41757200</v>
@@ -3530,19 +3530,19 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.01127730732133381</v>
+        <v>-0.01127739566253461</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.1168154201463345</v>
+        <v>-0.1168154107155459</v>
       </c>
       <c r="L74" t="n">
         <v>37035530</v>
       </c>
       <c r="M74" t="n">
-        <v>86.30854873657226</v>
+        <v>86.30854797363281</v>
       </c>
       <c r="N74" t="n">
-        <v>87.7029150390625</v>
+        <v>87.70291534423828</v>
       </c>
     </row>
     <row r="75">
@@ -3574,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.001280296316474416</v>
+        <v>0.001280204788889128</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.1156846821819808</v>
+        <v>-0.1156847535748708</v>
       </c>
       <c r="L75" t="n">
         <v>37739590</v>
       </c>
       <c r="M75" t="n">
-        <v>85.9623477935791</v>
+        <v>85.96234741210938</v>
       </c>
       <c r="N75" t="n">
         <v>87.60328689575195</v>
@@ -3594,16 +3594,16 @@
         <v>45667</v>
       </c>
       <c r="B76" t="n">
-        <v>82.84123757577954</v>
+        <v>82.84124518910465</v>
       </c>
       <c r="C76" t="n">
-        <v>83.39493692865193</v>
+        <v>83.39494459286345</v>
       </c>
       <c r="D76" t="n">
-        <v>82.72467397173226</v>
+        <v>82.72468157434487</v>
       </c>
       <c r="E76" t="n">
-        <v>83.01609039306641</v>
+        <v>83.01609802246094</v>
       </c>
       <c r="F76" t="n">
         <v>47115800</v>
@@ -3618,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.006625729972837391</v>
+        <v>-0.00662563867915944</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.1215439166886869</v>
+        <v>-0.1215439068761556</v>
       </c>
       <c r="L76" t="n">
         <v>38660055</v>
@@ -3638,16 +3638,16 @@
         <v>45670</v>
       </c>
       <c r="B77" t="n">
-        <v>83.08410782407981</v>
+        <v>83.08409254742985</v>
       </c>
       <c r="C77" t="n">
-        <v>83.21039497309664</v>
+        <v>83.2103796732263</v>
       </c>
       <c r="D77" t="n">
-        <v>82.60812236952546</v>
+        <v>82.60810718039481</v>
       </c>
       <c r="E77" t="n">
-        <v>82.98696899414062</v>
+        <v>82.98695373535156</v>
       </c>
       <c r="F77" t="n">
         <v>33258900</v>
@@ -3662,19 +3662,19 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.000350792223385854</v>
+        <v>-0.0003510678989211424</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.1218520722512986</v>
+        <v>-0.121852304611063</v>
       </c>
       <c r="L77" t="n">
         <v>38385580</v>
       </c>
       <c r="M77" t="n">
-        <v>85.2982723236084</v>
+        <v>85.29827194213867</v>
       </c>
       <c r="N77" t="n">
-        <v>87.38821899414063</v>
+        <v>87.38821868896484</v>
       </c>
     </row>
     <row r="78">
@@ -3682,16 +3682,16 @@
         <v>45671</v>
       </c>
       <c r="B78" t="n">
-        <v>82.79269321957395</v>
+        <v>82.79268559554636</v>
       </c>
       <c r="C78" t="n">
-        <v>82.91897296024869</v>
+        <v>82.91896532459253</v>
       </c>
       <c r="D78" t="n">
-        <v>82.46241229679856</v>
+        <v>82.46240470318513</v>
       </c>
       <c r="E78" t="n">
-        <v>82.85097503662109</v>
+        <v>82.85096740722656</v>
       </c>
       <c r="F78" t="n">
         <v>33412900</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.00163873869798925</v>
+        <v>-0.001638647064436949</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.1232911272430595</v>
+        <v>-0.1232912787542542</v>
       </c>
       <c r="L78" t="n">
         <v>37787805</v>
       </c>
       <c r="M78" t="n">
-        <v>85.03418197631837</v>
+        <v>85.03418159484863</v>
       </c>
       <c r="N78" t="n">
-        <v>87.27113845825195</v>
+        <v>87.27113830566407</v>
       </c>
     </row>
     <row r="79">
@@ -3726,16 +3726,16 @@
         <v>45672</v>
       </c>
       <c r="B79" t="n">
-        <v>84.22064144145497</v>
+        <v>84.22064906557284</v>
       </c>
       <c r="C79" t="n">
-        <v>84.4926405207835</v>
+        <v>84.49264816952423</v>
       </c>
       <c r="D79" t="n">
-        <v>83.92922497328578</v>
+        <v>83.92923257102302</v>
       </c>
       <c r="E79" t="n">
-        <v>84.2789306640625</v>
+        <v>84.27893829345703</v>
       </c>
       <c r="F79" t="n">
         <v>54120700</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01723523020471673</v>
+        <v>0.01723541596336164</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.1081808479985759</v>
+        <v>-0.1081808392648769</v>
       </c>
       <c r="L79" t="n">
         <v>38519540</v>
@@ -3762,7 +3762,7 @@
         <v>84.88648529052735</v>
       </c>
       <c r="N79" t="n">
-        <v>87.17973388671875</v>
+        <v>87.17973419189452</v>
       </c>
     </row>
     <row r="80">
@@ -3770,16 +3770,16 @@
         <v>45673</v>
       </c>
       <c r="B80" t="n">
-        <v>84.16236348857268</v>
+        <v>84.16234829990699</v>
       </c>
       <c r="C80" t="n">
-        <v>84.90063191530541</v>
+        <v>84.90061659340545</v>
       </c>
       <c r="D80" t="n">
-        <v>83.81265778176336</v>
+        <v>83.81264265620858</v>
       </c>
       <c r="E80" t="n">
-        <v>84.55092620849609</v>
+        <v>84.55091094970703</v>
       </c>
       <c r="F80" t="n">
         <v>34651100</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.003227325528343261</v>
+        <v>0.003227053659634382</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.1053026572826562</v>
+        <v>-0.1053028909784945</v>
       </c>
       <c r="L80" t="n">
         <v>39077980</v>
       </c>
       <c r="M80" t="n">
-        <v>84.73932571411133</v>
+        <v>84.73932456970215</v>
       </c>
       <c r="N80" t="n">
-        <v>87.11882186889649</v>
+        <v>87.11882171630859</v>
       </c>
     </row>
     <row r="81">
@@ -3838,19 +3838,19 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.001723294862536529</v>
+        <v>0.001723475642190886</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.1037608299484263</v>
+        <v>-0.1037609023039574</v>
       </c>
       <c r="L81" t="n">
         <v>39379765</v>
       </c>
       <c r="M81" t="n">
-        <v>84.5888069152832</v>
+        <v>84.58880577087402</v>
       </c>
       <c r="N81" t="n">
-        <v>87.03363082885743</v>
+        <v>87.03363052368164</v>
       </c>
     </row>
     <row r="82">
@@ -3858,16 +3858,16 @@
         <v>45678</v>
       </c>
       <c r="B82" t="n">
-        <v>85.37660117404862</v>
+        <v>85.3766087965048</v>
       </c>
       <c r="C82" t="n">
-        <v>85.6485928030765</v>
+        <v>85.6486004498162</v>
       </c>
       <c r="D82" t="n">
-        <v>85.12403434228727</v>
+        <v>85.1240419421942</v>
       </c>
       <c r="E82" t="n">
-        <v>85.45431518554688</v>
+        <v>85.45432281494141</v>
       </c>
       <c r="F82" t="n">
         <v>30548600</v>
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.008945843287446742</v>
+        <v>0.008945933366524494</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.09574321478507353</v>
+        <v>-0.09574320705549455</v>
       </c>
       <c r="L82" t="n">
         <v>37840775</v>
@@ -3894,7 +3894,7 @@
         <v>84.53100700378418</v>
       </c>
       <c r="N82" t="n">
-        <v>86.95414352416992</v>
+        <v>86.95414337158203</v>
       </c>
     </row>
     <row r="83">
@@ -3902,16 +3902,16 @@
         <v>45679</v>
       </c>
       <c r="B83" t="n">
-        <v>85.35719013291977</v>
+        <v>85.35719779370027</v>
       </c>
       <c r="C83" t="n">
-        <v>85.46404506314657</v>
+        <v>85.46405273351726</v>
       </c>
       <c r="D83" t="n">
-        <v>84.82291548178571</v>
+        <v>84.82292309461523</v>
       </c>
       <c r="E83" t="n">
-        <v>85.00748443603516</v>
+        <v>85.00749206542969</v>
       </c>
       <c r="F83" t="n">
         <v>25278400</v>
@@ -3926,19 +3926,19 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.005228884562956448</v>
+        <v>-0.005228884096119657</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.1004714691302325</v>
+        <v>-0.1004714610189302</v>
       </c>
       <c r="L83" t="n">
         <v>34150530</v>
       </c>
       <c r="M83" t="n">
-        <v>84.5164363861084</v>
+        <v>84.51643676757813</v>
       </c>
       <c r="N83" t="n">
-        <v>86.91470565795899</v>
+        <v>86.91470581054688</v>
       </c>
     </row>
     <row r="84">
@@ -3946,16 +3946,16 @@
         <v>45680</v>
       </c>
       <c r="B84" t="n">
-        <v>84.16236250019949</v>
+        <v>84.1623472747999</v>
       </c>
       <c r="C84" t="n">
-        <v>84.50235209693321</v>
+        <v>84.50233681002777</v>
       </c>
       <c r="D84" t="n">
-        <v>84.05550756819498</v>
+        <v>84.055492362126</v>
       </c>
       <c r="E84" t="n">
-        <v>84.34693145751953</v>
+        <v>84.34691619873047</v>
       </c>
       <c r="F84" t="n">
         <v>31949000</v>
@@ -3970,19 +3970,19 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.007770527300012819</v>
+        <v>-0.007770795851626544</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.1074612801364965</v>
+        <v>-0.107461513658064</v>
       </c>
       <c r="L84" t="n">
         <v>33470860</v>
       </c>
       <c r="M84" t="n">
-        <v>84.44455261230469</v>
+        <v>84.44455299377441</v>
       </c>
       <c r="N84" t="n">
-        <v>86.84026382446289</v>
+        <v>86.84026336669922</v>
       </c>
     </row>
     <row r="85">
@@ -3990,16 +3990,16 @@
         <v>45681</v>
       </c>
       <c r="B85" t="n">
-        <v>84.24005996764565</v>
+        <v>84.24006755330369</v>
       </c>
       <c r="C85" t="n">
-        <v>84.78404321549655</v>
+        <v>84.78405085013925</v>
       </c>
       <c r="D85" t="n">
-        <v>84.12348895258506</v>
+        <v>84.1234965277461</v>
       </c>
       <c r="E85" t="n">
-        <v>84.72576141357422</v>
+        <v>84.72576904296875</v>
       </c>
       <c r="F85" t="n">
         <v>21110400</v>
@@ -4014,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.004491330621144041</v>
+        <v>0.004491602791329763</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.1034525936534169</v>
+        <v>-0.1034525853014413</v>
       </c>
       <c r="L85" t="n">
         <v>32888150</v>
@@ -4026,7 +4026,7 @@
         <v>84.430952835083</v>
       </c>
       <c r="N85" t="n">
-        <v>86.75102706909179</v>
+        <v>86.75102661132813</v>
       </c>
     </row>
     <row r="86">
@@ -4034,16 +4034,16 @@
         <v>45684</v>
       </c>
       <c r="B86" t="n">
-        <v>85.63889564307823</v>
+        <v>85.63888802146407</v>
       </c>
       <c r="C86" t="n">
-        <v>85.90117120318558</v>
+        <v>85.90116355822965</v>
       </c>
       <c r="D86" t="n">
-        <v>85.33775566077182</v>
+        <v>85.33774806595825</v>
       </c>
       <c r="E86" t="n">
-        <v>85.726318359375</v>
+        <v>85.72631072998047</v>
       </c>
       <c r="F86" t="n">
         <v>42864200</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01180935915012604</v>
+        <v>0.0118091779905154</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0928649433367561</v>
+        <v>-0.09286509730432957</v>
       </c>
       <c r="L86" t="n">
         <v>33912480</v>
@@ -4070,7 +4070,7 @@
         <v>84.44940910339355</v>
       </c>
       <c r="N86" t="n">
-        <v>86.69047988891602</v>
+        <v>86.69047912597657</v>
       </c>
     </row>
     <row r="87">
@@ -4078,16 +4078,16 @@
         <v>45685</v>
       </c>
       <c r="B87" t="n">
-        <v>85.32804801694041</v>
+        <v>85.32804041782522</v>
       </c>
       <c r="C87" t="n">
-        <v>85.67775373924081</v>
+        <v>85.67774610898164</v>
       </c>
       <c r="D87" t="n">
-        <v>85.15320256700801</v>
+        <v>85.15319498346413</v>
       </c>
       <c r="E87" t="n">
-        <v>85.66804504394531</v>
+        <v>85.66803741455078</v>
       </c>
       <c r="F87" t="n">
         <v>25519100</v>
@@ -4102,19 +4102,19 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.0006797599213977934</v>
+        <v>-0.0006797599818944011</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.0934815773915707</v>
+        <v>-0.09348173130936177</v>
       </c>
       <c r="L87" t="n">
         <v>34189345</v>
       </c>
       <c r="M87" t="n">
-        <v>84.46738052368164</v>
+        <v>84.46738014221191</v>
       </c>
       <c r="N87" t="n">
-        <v>86.65538177490234</v>
+        <v>86.65538055419921</v>
       </c>
     </row>
     <row r="88">
@@ -4146,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.002041201273666804</v>
+        <v>-0.002041112397796363</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.09533196395040144</v>
+        <v>-0.09533203698641513</v>
       </c>
       <c r="L88" t="n">
         <v>34093370</v>
       </c>
       <c r="M88" t="n">
-        <v>84.5115795135498</v>
+        <v>84.51157913208007</v>
       </c>
       <c r="N88" t="n">
-        <v>86.63337234497071</v>
+        <v>86.63337097167968</v>
       </c>
     </row>
     <row r="89">
@@ -4193,16 +4193,16 @@
         <v>0.003749588827604899</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.09193983078973855</v>
+        <v>-0.09193990409960728</v>
       </c>
       <c r="L89" t="n">
         <v>32922135</v>
       </c>
       <c r="M89" t="n">
-        <v>84.53780708312988</v>
+        <v>84.53780670166016</v>
       </c>
       <c r="N89" t="n">
-        <v>86.60774520874024</v>
+        <v>86.607744140625</v>
       </c>
     </row>
     <row r="90">
@@ -4237,16 +4237,16 @@
         <v>-0.006565562854675577</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.09790175690651581</v>
+        <v>-0.09790182973506401</v>
       </c>
       <c r="L90" t="n">
         <v>33765775</v>
       </c>
       <c r="M90" t="n">
-        <v>84.55869216918946</v>
+        <v>84.55869178771972</v>
       </c>
       <c r="N90" t="n">
-        <v>86.57547851562499</v>
+        <v>86.57547729492188</v>
       </c>
     </row>
     <row r="91">
@@ -4254,16 +4254,16 @@
         <v>45691</v>
       </c>
       <c r="B91" t="n">
-        <v>86.3538858874784</v>
+        <v>86.35389355321971</v>
       </c>
       <c r="C91" t="n">
-        <v>86.86081442494752</v>
+        <v>86.8608221356895</v>
       </c>
       <c r="D91" t="n">
-        <v>85.59348936244513</v>
+        <v>85.59349696068509</v>
       </c>
       <c r="E91" t="n">
-        <v>85.94444274902344</v>
+        <v>85.94445037841797</v>
       </c>
       <c r="F91" t="n">
         <v>70657200</v>
@@ -4278,19 +4278,19 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.008142076409815013</v>
+        <v>0.008142165903834542</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.09055680408208877</v>
+        <v>-0.0905567967712213</v>
       </c>
       <c r="L91" t="n">
         <v>35906570</v>
       </c>
       <c r="M91" t="n">
-        <v>84.60262565612793</v>
+        <v>84.60262603759766</v>
       </c>
       <c r="N91" t="n">
-        <v>86.55400833129883</v>
+        <v>86.55400711059571</v>
       </c>
     </row>
     <row r="92">
@@ -4322,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.003062607690607289</v>
+        <v>0.003062518647506396</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.08777153635610013</v>
+        <v>-0.08777161000248523</v>
       </c>
       <c r="L92" t="n">
         <v>36479160</v>
@@ -4334,7 +4334,7 @@
         <v>84.67331962585449</v>
       </c>
       <c r="N92" t="n">
-        <v>86.52893081665039</v>
+        <v>86.52892959594726</v>
       </c>
     </row>
     <row r="93">
@@ -4369,16 +4369,16 @@
         <v>0.01651015406999123</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.072710503874308</v>
+        <v>-0.07271057873660625</v>
       </c>
       <c r="L93" t="n">
         <v>37384145</v>
       </c>
       <c r="M93" t="n">
-        <v>84.83412170410156</v>
+        <v>84.83412094116211</v>
       </c>
       <c r="N93" t="n">
-        <v>86.53791213989258</v>
+        <v>86.53791107177734</v>
       </c>
     </row>
     <row r="94">
@@ -4386,16 +4386,16 @@
         <v>45694</v>
       </c>
       <c r="B94" t="n">
-        <v>87.60172312297215</v>
+        <v>87.60171549272832</v>
       </c>
       <c r="C94" t="n">
-        <v>87.88443600673445</v>
+        <v>87.88442835186589</v>
       </c>
       <c r="D94" t="n">
-        <v>87.29951613307369</v>
+        <v>87.29950852915256</v>
       </c>
       <c r="E94" t="n">
-        <v>87.59197235107422</v>
+        <v>87.59196472167969</v>
       </c>
       <c r="F94" t="n">
         <v>22509900</v>
@@ -4410,19 +4410,19 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.0004448907862769635</v>
+        <v>-0.0004449778490531742</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.07312304642734568</v>
+        <v>-0.07312320198872979</v>
       </c>
       <c r="L94" t="n">
         <v>36421780</v>
       </c>
       <c r="M94" t="n">
-        <v>85.04057312011719</v>
+        <v>85.04057159423829</v>
       </c>
       <c r="N94" t="n">
-        <v>86.54746398925781</v>
+        <v>86.54746307373047</v>
       </c>
     </row>
     <row r="95">
@@ -4430,16 +4430,16 @@
         <v>45695</v>
       </c>
       <c r="B95" t="n">
-        <v>86.99728253319601</v>
+        <v>86.99729016002672</v>
       </c>
       <c r="C95" t="n">
-        <v>87.2020040719781</v>
+        <v>87.20201171675622</v>
       </c>
       <c r="D95" t="n">
-        <v>86.70482637964651</v>
+        <v>86.70483398083833</v>
       </c>
       <c r="E95" t="n">
-        <v>87.02652740478516</v>
+        <v>87.02653503417969</v>
       </c>
       <c r="F95" t="n">
         <v>31171200</v>
@@ -4454,19 +4454,19 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.006455442560680313</v>
+        <v>-0.006455268919890456</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.07910644736195227</v>
+        <v>-0.07910644097549957</v>
       </c>
       <c r="L95" t="n">
         <v>35750800</v>
       </c>
       <c r="M95" t="n">
-        <v>85.21340942382812</v>
+        <v>85.21340827941894</v>
       </c>
       <c r="N95" t="n">
-        <v>86.54474243164063</v>
+        <v>86.54474197387695</v>
       </c>
     </row>
     <row r="96">
@@ -4498,19 +4498,19 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.003024352003784481</v>
+        <v>-0.003024439406098645</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.08189155362314537</v>
+        <v>-0.08189162774423575</v>
       </c>
       <c r="L96" t="n">
         <v>34531815</v>
       </c>
       <c r="M96" t="n">
-        <v>85.40077133178711</v>
+        <v>85.4007698059082</v>
       </c>
       <c r="N96" t="n">
-        <v>86.49162826538085</v>
+        <v>86.49162765502929</v>
       </c>
     </row>
     <row r="97">
@@ -4545,16 +4545,16 @@
         <v>-0.006404453369489249</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.08777153635610013</v>
+        <v>-0.08777161000248546</v>
       </c>
       <c r="L97" t="n">
         <v>33944520</v>
       </c>
       <c r="M97" t="n">
-        <v>85.56180572509766</v>
+        <v>85.56180496215821</v>
       </c>
       <c r="N97" t="n">
-        <v>86.43434341430664</v>
+        <v>86.43434265136719</v>
       </c>
     </row>
     <row r="98">
@@ -4562,16 +4562,16 @@
         <v>45700</v>
       </c>
       <c r="B98" t="n">
-        <v>85.09629339438042</v>
+        <v>85.09630102902251</v>
       </c>
       <c r="C98" t="n">
-        <v>85.39850032439482</v>
+        <v>85.39850798615022</v>
       </c>
       <c r="D98" t="n">
-        <v>84.67709953775162</v>
+        <v>84.67710713478462</v>
       </c>
       <c r="E98" t="n">
-        <v>85.03780364990234</v>
+        <v>85.03781127929688</v>
       </c>
       <c r="F98" t="n">
         <v>48536200</v>
@@ -4586,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.01357017755794332</v>
+        <v>-0.01357008905774726</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.1001506385811577</v>
+        <v>-0.1001506304957571</v>
       </c>
       <c r="L98" t="n">
         <v>34700685</v>
@@ -4598,7 +4598,7 @@
         <v>85.67114715576172</v>
       </c>
       <c r="N98" t="n">
-        <v>86.3413185119629</v>
+        <v>86.34131790161133</v>
       </c>
     </row>
     <row r="99">
@@ -4630,19 +4630,19 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01662280219718593</v>
+        <v>0.01662271098815404</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.08519262063902822</v>
+        <v>-0.08519269449361544</v>
       </c>
       <c r="L99" t="n">
         <v>34130555</v>
       </c>
       <c r="M99" t="n">
-        <v>85.77976913452149</v>
+        <v>85.77976875305175</v>
       </c>
       <c r="N99" t="n">
-        <v>86.25805038452148</v>
+        <v>86.25804962158203</v>
       </c>
     </row>
     <row r="100">
@@ -4677,16 +4677,16 @@
         <v>0.005299984450225503</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.08034415575346354</v>
+        <v>-0.08034422999947888</v>
       </c>
       <c r="L100" t="n">
         <v>33771035</v>
       </c>
       <c r="M100" t="n">
-        <v>85.897700881958</v>
+        <v>85.89770126342773</v>
       </c>
       <c r="N100" t="n">
-        <v>86.17959182739258</v>
+        <v>86.17959091186523</v>
       </c>
     </row>
     <row r="101">
@@ -4721,16 +4721,16 @@
         <v>-0.01177790984610338</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.09117577937644139</v>
+        <v>-0.09117585274799378</v>
       </c>
       <c r="L101" t="n">
         <v>33748715</v>
       </c>
       <c r="M101" t="n">
-        <v>85.95716667175293</v>
+        <v>85.95716705322266</v>
       </c>
       <c r="N101" t="n">
-        <v>86.09633682250977</v>
+        <v>86.09633605957032</v>
       </c>
     </row>
     <row r="102">
@@ -4738,16 +4738,16 @@
         <v>45707</v>
       </c>
       <c r="B102" t="n">
-        <v>85.73970373391717</v>
+        <v>85.73971134082379</v>
       </c>
       <c r="C102" t="n">
-        <v>86.22713810974992</v>
+        <v>86.22714575990217</v>
       </c>
       <c r="D102" t="n">
-        <v>85.68121398886791</v>
+        <v>85.68122159058525</v>
       </c>
       <c r="E102" t="n">
-        <v>85.99317169189453</v>
+        <v>85.99317932128906</v>
       </c>
       <c r="F102" t="n">
         <v>20584300</v>
@@ -4762,19 +4762,19 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.001248440670597484</v>
+        <v>0.001248529502294593</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.09004116625699088</v>
+        <v>-0.09004115898775189</v>
       </c>
       <c r="L102" t="n">
         <v>33250500</v>
       </c>
       <c r="M102" t="n">
-        <v>85.98410949707031</v>
+        <v>85.98410987854004</v>
       </c>
       <c r="N102" t="n">
-        <v>85.99587341308593</v>
+        <v>85.99587295532227</v>
       </c>
     </row>
     <row r="103">
@@ -4782,16 +4782,16 @@
         <v>45708</v>
       </c>
       <c r="B103" t="n">
-        <v>86.227145937291</v>
+        <v>86.22715355892998</v>
       </c>
       <c r="C103" t="n">
-        <v>86.52936033534942</v>
+        <v>86.52936798370122</v>
       </c>
       <c r="D103" t="n">
-        <v>86.227145937291</v>
+        <v>86.22715355892998</v>
       </c>
       <c r="E103" t="n">
-        <v>86.31488800048828</v>
+        <v>86.31489562988281</v>
       </c>
       <c r="F103" t="n">
         <v>27913400</v>
@@ -4806,19 +4806,19 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.003741184355269933</v>
+        <v>0.003741184023348554</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.08663684250425185</v>
+        <v>-0.08663683550985213</v>
       </c>
       <c r="L103" t="n">
         <v>33382250</v>
       </c>
       <c r="M103" t="n">
-        <v>86.04947967529297</v>
+        <v>86.04948005676269</v>
       </c>
       <c r="N103" t="n">
-        <v>85.89816741943359</v>
+        <v>85.89816680908203</v>
       </c>
     </row>
     <row r="104">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.01208498015417914</v>
+        <v>0.01208489069574248</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.0755988668723574</v>
+        <v>-0.07559894150147128</v>
       </c>
       <c r="L104" t="n">
         <v>34130415</v>
       </c>
       <c r="M104" t="n">
-        <v>86.20003318786621</v>
+        <v>86.20003433227539</v>
       </c>
       <c r="N104" t="n">
-        <v>85.81861389160156</v>
+        <v>85.81861358642578</v>
       </c>
     </row>
     <row r="105">
@@ -4870,16 +4870,16 @@
         <v>45712</v>
       </c>
       <c r="B105" t="n">
-        <v>87.08504297077879</v>
+        <v>87.08503538722692</v>
       </c>
       <c r="C105" t="n">
-        <v>87.79669312188317</v>
+        <v>87.79668547635929</v>
       </c>
       <c r="D105" t="n">
-        <v>87.01680244344467</v>
+        <v>87.01679486583535</v>
       </c>
       <c r="E105" t="n">
-        <v>87.61147308349609</v>
+        <v>87.61146545410156</v>
       </c>
       <c r="F105" t="n">
         <v>26218000</v>
@@ -4894,19 +4894,19 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0.002901524411651479</v>
+        <v>0.002901437076840985</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.0729166944184293</v>
+        <v>-0.07291684999647263</v>
       </c>
       <c r="L105" t="n">
         <v>34385795</v>
       </c>
       <c r="M105" t="n">
-        <v>86.34431877136231</v>
+        <v>86.34431915283203</v>
       </c>
       <c r="N105" t="n">
-        <v>85.7609669494629</v>
+        <v>85.76096664428711</v>
       </c>
     </row>
     <row r="106">
@@ -4914,16 +4914,16 @@
         <v>45713</v>
       </c>
       <c r="B106" t="n">
-        <v>88.68380960492551</v>
+        <v>88.68381719676584</v>
       </c>
       <c r="C106" t="n">
-        <v>89.20048884207287</v>
+        <v>89.2004964781439</v>
       </c>
       <c r="D106" t="n">
-        <v>88.51808370577601</v>
+        <v>88.51809128342927</v>
       </c>
       <c r="E106" t="n">
-        <v>89.12249755859375</v>
+        <v>89.12250518798828</v>
       </c>
       <c r="F106" t="n">
         <v>50125100</v>
@@ -4938,19 +4938,19 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01724687899788657</v>
+        <v>0.01724705466407617</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.05692740082610326</v>
+        <v>-0.05692739623021792</v>
       </c>
       <c r="L106" t="n">
         <v>34748840</v>
       </c>
       <c r="M106" t="n">
-        <v>86.51412773132324</v>
+        <v>86.51412887573242</v>
       </c>
       <c r="N106" t="n">
-        <v>85.74205596923828</v>
+        <v>85.74205581665039</v>
       </c>
     </row>
     <row r="107">
@@ -4958,16 +4958,16 @@
         <v>45714</v>
       </c>
       <c r="B107" t="n">
-        <v>89.12250336932483</v>
+        <v>89.12251095391859</v>
       </c>
       <c r="C107" t="n">
-        <v>89.74641880252034</v>
+        <v>89.74642644021117</v>
       </c>
       <c r="D107" t="n">
-        <v>88.90803104460289</v>
+        <v>88.9080386109444</v>
       </c>
       <c r="E107" t="n">
-        <v>89.64893341064453</v>
+        <v>89.64894104003906</v>
       </c>
       <c r="F107" t="n">
         <v>32220200</v>
@@ -4982,19 +4982,19 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.005906879480174654</v>
+        <v>0.005906878974512253</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.05135678464172799</v>
+        <v>-0.05135678049557169</v>
       </c>
       <c r="L107" t="n">
         <v>35083895</v>
       </c>
       <c r="M107" t="n">
-        <v>86.71317214965821</v>
+        <v>86.71317405700684</v>
       </c>
       <c r="N107" t="n">
-        <v>85.75070419311524</v>
+        <v>85.75070434570313</v>
       </c>
     </row>
     <row r="108">
@@ -5026,19 +5026,19 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.007068401122849233</v>
+        <v>-0.007068485624314835</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.05806217541034975</v>
+        <v>-0.05806225145524246</v>
       </c>
       <c r="L108" t="n">
         <v>36485435</v>
       </c>
       <c r="M108" t="n">
-        <v>86.88927612304687</v>
+        <v>86.8892780303955</v>
       </c>
       <c r="N108" t="n">
-        <v>85.76835372924805</v>
+        <v>85.76835403442382</v>
       </c>
     </row>
     <row r="109">
@@ -5046,16 +5046,16 @@
         <v>45716</v>
       </c>
       <c r="B109" t="n">
-        <v>89.54170621577936</v>
+        <v>89.54169863425956</v>
       </c>
       <c r="C109" t="n">
-        <v>90.15587837765693</v>
+        <v>90.15587074413503</v>
       </c>
       <c r="D109" t="n">
-        <v>89.17125871448798</v>
+        <v>89.17125116433408</v>
       </c>
       <c r="E109" t="n">
-        <v>90.10713195800781</v>
+        <v>90.10712432861328</v>
       </c>
       <c r="F109" t="n">
         <v>49388600</v>
@@ -5070,19 +5070,19 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01226613486045913</v>
+        <v>0.01226604915161955</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.04650823902376555</v>
+        <v>-0.04650839673382656</v>
       </c>
       <c r="L109" t="n">
         <v>37700120</v>
       </c>
       <c r="M109" t="n">
-        <v>87.10394554138183</v>
+        <v>87.10394706726075</v>
       </c>
       <c r="N109" t="n">
-        <v>85.82583908081055</v>
+        <v>85.82583923339844</v>
       </c>
     </row>
     <row r="110">
@@ -5114,16 +5114,16 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.004666770867536529</v>
+        <v>0.004666855932943248</v>
       </c>
       <c r="K110" t="n">
-        <v>-0.04205851145120554</v>
+        <v>-0.04205858878811231</v>
       </c>
       <c r="L110" t="n">
         <v>37405825</v>
       </c>
       <c r="M110" t="n">
-        <v>87.36781120300293</v>
+        <v>87.36781272888183</v>
       </c>
       <c r="N110" t="n">
         <v>85.88650955200195</v>
@@ -5161,13 +5161,13 @@
         <v>-0.01231497098470635</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.05385553308773039</v>
+        <v>-0.05385560947223533</v>
       </c>
       <c r="L111" t="n">
         <v>36709065</v>
       </c>
       <c r="M111" t="n">
-        <v>87.54122886657714</v>
+        <v>87.54123001098633</v>
       </c>
       <c r="N111" t="n">
         <v>85.92062530517578</v>
@@ -5178,16 +5178,16 @@
         <v>45721</v>
       </c>
       <c r="B112" t="n">
-        <v>89.53993258006869</v>
+        <v>89.53992487833366</v>
       </c>
       <c r="C112" t="n">
-        <v>89.77464289297585</v>
+        <v>89.77463517105232</v>
       </c>
       <c r="D112" t="n">
-        <v>88.61089517328588</v>
+        <v>88.61088755146156</v>
       </c>
       <c r="E112" t="n">
-        <v>88.69890594482422</v>
+        <v>88.69889831542969</v>
       </c>
       <c r="F112" t="n">
         <v>50215900</v>
@@ -5202,19 +5202,19 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.007984204805762452</v>
+        <v>-0.007984290133532856</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.06140974428739687</v>
+        <v>-0.06140990079442366</v>
       </c>
       <c r="L112" t="n">
         <v>37549160</v>
       </c>
       <c r="M112" t="n">
-        <v>87.66579132080078</v>
+        <v>87.66579208374023</v>
       </c>
       <c r="N112" t="n">
-        <v>85.96239715576172</v>
+        <v>85.96239730834961</v>
       </c>
     </row>
     <row r="113">
@@ -5246,19 +5246,19 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.003307688675232678</v>
+        <v>-0.003307602945206489</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.06451430864690122</v>
+        <v>-0.06451438417089772</v>
       </c>
       <c r="L113" t="n">
         <v>37273975</v>
       </c>
       <c r="M113" t="n">
-        <v>87.70451927185059</v>
+        <v>87.70452003479004</v>
       </c>
       <c r="N113" t="n">
-        <v>86.02452957153321</v>
+        <v>86.02452972412109</v>
       </c>
     </row>
     <row r="114">
@@ -5266,16 +5266,16 @@
         <v>45723</v>
       </c>
       <c r="B114" t="n">
-        <v>89.1291995181269</v>
+        <v>89.12918408492285</v>
       </c>
       <c r="C114" t="n">
-        <v>89.14876244113904</v>
+        <v>89.14874700454757</v>
       </c>
       <c r="D114" t="n">
-        <v>88.0045701991382</v>
+        <v>88.00455496066982</v>
       </c>
       <c r="E114" t="n">
-        <v>88.12192535400391</v>
+        <v>88.12191009521484</v>
       </c>
       <c r="F114" t="n">
         <v>36903600</v>
@@ -5290,19 +5290,19 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.003207856612235549</v>
+        <v>-0.003208029212198538</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.06751521260755999</v>
+        <v>-0.06751544935406906</v>
       </c>
       <c r="L114" t="n">
         <v>37993660</v>
       </c>
       <c r="M114" t="n">
-        <v>87.73101692199707</v>
+        <v>87.7310173034668</v>
       </c>
       <c r="N114" t="n">
-        <v>86.0712759399414</v>
+        <v>86.0712760925293</v>
       </c>
     </row>
     <row r="115">
@@ -5310,16 +5310,16 @@
         <v>45726</v>
       </c>
       <c r="B115" t="n">
-        <v>89.07052039339051</v>
+        <v>89.07051276148228</v>
       </c>
       <c r="C115" t="n">
-        <v>89.60838136724895</v>
+        <v>89.60837368925471</v>
       </c>
       <c r="D115" t="n">
-        <v>88.90427286298346</v>
+        <v>88.90426524531996</v>
       </c>
       <c r="E115" t="n">
-        <v>89.04118347167969</v>
+        <v>89.04117584228516</v>
       </c>
       <c r="F115" t="n">
         <v>41440800</v>
@@ -5334,19 +5334,19 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01043166174573384</v>
+        <v>0.01043175012975839</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.05778784672243953</v>
+        <v>-0.05778800352187063</v>
       </c>
       <c r="L115" t="n">
         <v>38507140</v>
       </c>
       <c r="M115" t="n">
-        <v>87.83174972534179</v>
+        <v>87.83174934387208</v>
       </c>
       <c r="N115" t="n">
-        <v>86.15214447021485</v>
+        <v>86.15214416503906</v>
       </c>
     </row>
     <row r="116">
@@ -5378,19 +5378,19 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.007139009936417362</v>
+        <v>-0.007138924864223184</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.06451430864690122</v>
+        <v>-0.06451438417089772</v>
       </c>
       <c r="L116" t="n">
         <v>39398120</v>
       </c>
       <c r="M116" t="n">
-        <v>87.91385917663574</v>
+        <v>87.91385879516602</v>
       </c>
       <c r="N116" t="n">
-        <v>86.21311096191407</v>
+        <v>86.21311080932617</v>
       </c>
     </row>
     <row r="117">
@@ -5398,16 +5398,16 @@
         <v>45728</v>
       </c>
       <c r="B117" t="n">
-        <v>88.01433674106161</v>
+        <v>88.01434438234253</v>
       </c>
       <c r="C117" t="n">
-        <v>88.38595014353947</v>
+        <v>88.38595781708335</v>
       </c>
       <c r="D117" t="n">
-        <v>87.79918939081261</v>
+        <v>87.79919701341474</v>
       </c>
       <c r="E117" t="n">
-        <v>87.87742614746094</v>
+        <v>87.87743377685547</v>
       </c>
       <c r="F117" t="n">
         <v>32734600</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.00597351211927899</v>
+        <v>-0.005973425819297495</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.07010244376161101</v>
+        <v>-0.07010243810207273</v>
       </c>
       <c r="L117" t="n">
         <v>39959200</v>
@@ -5466,16 +5466,16 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.008791598043803361</v>
+        <v>0.008791510461943375</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.06192715822524808</v>
+        <v>-0.0619272339581115</v>
       </c>
       <c r="L118" t="n">
         <v>39466160</v>
       </c>
       <c r="M118" t="n">
-        <v>88.17795791625977</v>
+        <v>88.17795753479004</v>
       </c>
       <c r="N118" t="n">
         <v>86.34530334472656</v>
@@ -5486,16 +5486,16 @@
         <v>45730</v>
       </c>
       <c r="B119" t="n">
-        <v>88.02412171008812</v>
+        <v>88.0241293259452</v>
       </c>
       <c r="C119" t="n">
-        <v>88.41529804785662</v>
+        <v>88.41530569755832</v>
       </c>
       <c r="D119" t="n">
-        <v>87.87742965079143</v>
+        <v>87.87743725395669</v>
       </c>
       <c r="E119" t="n">
-        <v>88.18058776855469</v>
+        <v>88.18059539794922</v>
       </c>
       <c r="F119" t="n">
         <v>24658000</v>
@@ -5510,10 +5510,10 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.005295220961529123</v>
+        <v>-0.005295134899557907</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.06689446120045495</v>
+        <v>-0.06689445579990472</v>
       </c>
       <c r="L119" t="n">
         <v>38563155</v>
@@ -5522,7 +5522,7 @@
         <v>88.26441879272461</v>
       </c>
       <c r="N119" t="n">
-        <v>86.40313125610352</v>
+        <v>86.40313140869141</v>
       </c>
     </row>
     <row r="120">
@@ -5530,16 +5530,16 @@
         <v>45733</v>
       </c>
       <c r="B120" t="n">
-        <v>88.79670313247756</v>
+        <v>88.7967107770265</v>
       </c>
       <c r="C120" t="n">
-        <v>89.16831659248679</v>
+        <v>89.1683242690281</v>
       </c>
       <c r="D120" t="n">
-        <v>88.38596382701913</v>
+        <v>88.38597143620734</v>
       </c>
       <c r="E120" t="n">
-        <v>88.62067413330078</v>
+        <v>88.62068176269531</v>
       </c>
       <c r="F120" t="n">
         <v>26700300</v>
@@ -5554,19 +5554,19 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.004990739752168238</v>
+        <v>0.004990739320368975</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.06223757429499965</v>
+        <v>-0.06223756927041102</v>
       </c>
       <c r="L120" t="n">
         <v>38525135</v>
       </c>
       <c r="M120" t="n">
-        <v>88.34997444152832</v>
+        <v>88.34997482299805</v>
       </c>
       <c r="N120" t="n">
-        <v>86.47889221191406</v>
+        <v>86.47889251708985</v>
       </c>
     </row>
     <row r="121">
@@ -5598,19 +5598,19 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0009930534469371199</v>
+        <v>0.0009929672709929616</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.06130632608574516</v>
+        <v>-0.06130640186872971</v>
       </c>
       <c r="L121" t="n">
         <v>38236410</v>
       </c>
       <c r="M121" t="n">
-        <v>88.49111099243164</v>
+        <v>88.49111137390136</v>
       </c>
       <c r="N121" t="n">
-        <v>86.55175033569336</v>
+        <v>86.55175079345703</v>
       </c>
     </row>
     <row r="122">
@@ -5618,16 +5618,16 @@
         <v>45735</v>
       </c>
       <c r="B122" t="n">
-        <v>88.67933589683098</v>
+        <v>88.67934348438853</v>
       </c>
       <c r="C122" t="n">
-        <v>89.2074228224098</v>
+        <v>89.20743045515135</v>
       </c>
       <c r="D122" t="n">
-        <v>88.38595178448679</v>
+        <v>88.38595934694187</v>
       </c>
       <c r="E122" t="n">
-        <v>89.16830444335938</v>
+        <v>89.16831207275391</v>
       </c>
       <c r="F122" t="n">
         <v>31378700</v>
@@ -5642,19 +5642,19 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.005181288328151235</v>
+        <v>0.00518137433320276</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.05644268350938386</v>
+        <v>-0.05644267895263055</v>
       </c>
       <c r="L122" t="n">
         <v>38776130</v>
       </c>
       <c r="M122" t="n">
-        <v>88.64986763000488</v>
+        <v>88.64986801147461</v>
       </c>
       <c r="N122" t="n">
-        <v>86.63924087524414</v>
+        <v>86.63924133300782</v>
       </c>
     </row>
     <row r="123">
@@ -5662,16 +5662,16 @@
         <v>45736</v>
       </c>
       <c r="B123" t="n">
-        <v>90.16580087105939</v>
+        <v>90.16580858072805</v>
       </c>
       <c r="C123" t="n">
-        <v>90.20491925179127</v>
+        <v>90.20492696480477</v>
       </c>
       <c r="D123" t="n">
-        <v>89.14875281630371</v>
+        <v>89.14876043900921</v>
       </c>
       <c r="E123" t="n">
-        <v>89.22698211669922</v>
+        <v>89.22698974609375</v>
       </c>
       <c r="F123" t="n">
         <v>35645800</v>
@@ -5686,19 +5686,19 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0006580552776700443</v>
+        <v>0.0006580552213657498</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.05582177063748306</v>
+        <v>-0.05582176613085743</v>
       </c>
       <c r="L123" t="n">
         <v>39162750</v>
       </c>
       <c r="M123" t="n">
-        <v>88.79547233581543</v>
+        <v>88.79547271728515</v>
       </c>
       <c r="N123" t="n">
-        <v>86.73548217773437</v>
+        <v>86.73548248291016</v>
       </c>
     </row>
     <row r="124">
@@ -5706,16 +5706,16 @@
         <v>45737</v>
       </c>
       <c r="B124" t="n">
-        <v>89.31501118986908</v>
+        <v>89.31500350748055</v>
       </c>
       <c r="C124" t="n">
-        <v>89.42258488468426</v>
+        <v>89.42257719304283</v>
       </c>
       <c r="D124" t="n">
-        <v>88.62067663492429</v>
+        <v>88.62066901225863</v>
       </c>
       <c r="E124" t="n">
-        <v>88.69890594482422</v>
+        <v>88.69889831542969</v>
       </c>
       <c r="F124" t="n">
         <v>29192100</v>
@@ -5730,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.005918346214874082</v>
+        <v>-0.005918516719737088</v>
       </c>
       <c r="K124" t="n">
-        <v>-0.06140974428739721</v>
+        <v>-0.06140990079442377</v>
       </c>
       <c r="L124" t="n">
         <v>38276740</v>
@@ -5750,16 +5750,16 @@
         <v>45740</v>
       </c>
       <c r="B125" t="n">
-        <v>88.20993438518454</v>
+        <v>88.20992671924505</v>
       </c>
       <c r="C125" t="n">
-        <v>88.26861569199494</v>
+        <v>88.26860802095571</v>
       </c>
       <c r="D125" t="n">
-        <v>87.72096577448825</v>
+        <v>87.72095815104286</v>
       </c>
       <c r="E125" t="n">
-        <v>87.78942108154297</v>
+        <v>87.78941345214844</v>
       </c>
       <c r="F125" t="n">
         <v>27985600</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.0102536198569011</v>
+        <v>-0.01025362073886138</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.07103369197086584</v>
+        <v>-0.07103384770092802</v>
       </c>
       <c r="L125" t="n">
         <v>38365120</v>
@@ -5786,7 +5786,7 @@
         <v>88.87141494750976</v>
       </c>
       <c r="N125" t="n">
-        <v>86.92459381103515</v>
+        <v>86.92459365844726</v>
       </c>
     </row>
     <row r="126">
@@ -5794,16 +5794,16 @@
         <v>45741</v>
       </c>
       <c r="B126" t="n">
-        <v>87.59382975271824</v>
+        <v>87.59382213947349</v>
       </c>
       <c r="C126" t="n">
-        <v>88.09257978561654</v>
+        <v>88.09257212902277</v>
       </c>
       <c r="D126" t="n">
-        <v>87.53515591157785</v>
+        <v>87.53514830343273</v>
       </c>
       <c r="E126" t="n">
-        <v>87.77964019775391</v>
+        <v>87.77963256835938</v>
       </c>
       <c r="F126" t="n">
         <v>22333800</v>
@@ -5818,19 +5818,19 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.0001114130115971168</v>
+        <v>-0.0001114130212795938</v>
       </c>
       <c r="K126" t="n">
-        <v>-0.07113719090491566</v>
+        <v>-0.07113734662662219</v>
       </c>
       <c r="L126" t="n">
         <v>36975555</v>
       </c>
       <c r="M126" t="n">
-        <v>88.80427207946778</v>
+        <v>88.80427131652831</v>
       </c>
       <c r="N126" t="n">
-        <v>87.01986480712891</v>
+        <v>87.01986434936524</v>
       </c>
     </row>
     <row r="127">
@@ -5838,16 +5838,16 @@
         <v>45742</v>
       </c>
       <c r="B127" t="n">
-        <v>87.41779169141108</v>
+        <v>87.41780698784682</v>
       </c>
       <c r="C127" t="n">
-        <v>87.6231575751471</v>
+        <v>87.62317290751793</v>
       </c>
       <c r="D127" t="n">
-        <v>87.12440759403532</v>
+        <v>87.12442283913447</v>
       </c>
       <c r="E127" t="n">
-        <v>87.20264434814453</v>
+        <v>87.20265960693359</v>
       </c>
       <c r="F127" t="n">
         <v>25095600</v>
@@ -5862,19 +5862,19 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.006573230971435917</v>
+        <v>-0.006572970796801414</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.07724282068987443</v>
+        <v>-0.07724273372148482</v>
       </c>
       <c r="L127" t="n">
         <v>36619325</v>
       </c>
       <c r="M127" t="n">
-        <v>88.68195762634278</v>
+        <v>88.68195724487305</v>
       </c>
       <c r="N127" t="n">
-        <v>87.10417831420898</v>
+        <v>87.10417846679688</v>
       </c>
     </row>
     <row r="128">
@@ -5882,16 +5882,16 @@
         <v>45743</v>
       </c>
       <c r="B128" t="n">
-        <v>86.88972109765791</v>
+        <v>86.88971347341246</v>
       </c>
       <c r="C128" t="n">
-        <v>87.06575009690177</v>
+        <v>87.06574245721042</v>
       </c>
       <c r="D128" t="n">
-        <v>86.67457371401889</v>
+        <v>86.67456610865179</v>
       </c>
       <c r="E128" t="n">
-        <v>86.94840240478516</v>
+        <v>86.94839477539062</v>
       </c>
       <c r="F128" t="n">
         <v>23674500</v>
@@ -5906,19 +5906,19 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.002915530202780903</v>
+        <v>-0.002915792163783459</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.07993314711598598</v>
+        <v>-0.07993330212757399</v>
       </c>
       <c r="L128" t="n">
         <v>35134370</v>
       </c>
       <c r="M128" t="n">
-        <v>88.5786148071289</v>
+        <v>88.57861404418945</v>
       </c>
       <c r="N128" t="n">
-        <v>87.18612686157226</v>
+        <v>87.18612701416015</v>
       </c>
     </row>
     <row r="129">
@@ -5926,16 +5926,16 @@
         <v>45744</v>
       </c>
       <c r="B129" t="n">
-        <v>87.8969870023986</v>
+        <v>87.8969946097867</v>
       </c>
       <c r="C129" t="n">
-        <v>88.34683718914269</v>
+        <v>88.34684483546484</v>
       </c>
       <c r="D129" t="n">
-        <v>87.82853170139555</v>
+        <v>87.82853930285893</v>
       </c>
       <c r="E129" t="n">
-        <v>88.15125274658203</v>
+        <v>88.15126037597656</v>
       </c>
       <c r="F129" t="n">
         <v>39869400</v>
@@ -5950,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01383407065028108</v>
+        <v>0.01383424735664462</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.06720487727020674</v>
+        <v>-0.06720487184459567</v>
       </c>
       <c r="L129" t="n">
         <v>34658410</v>
@@ -5962,7 +5962,7 @@
         <v>88.48082084655762</v>
       </c>
       <c r="N129" t="n">
-        <v>87.26357330322266</v>
+        <v>87.26357345581054</v>
       </c>
     </row>
     <row r="130">
@@ -5994,10 +5994,10 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0.009873499252780027</v>
+        <v>0.00987341184934043</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.05799492532293726</v>
+        <v>-0.05799500137325908</v>
       </c>
       <c r="L130" t="n">
         <v>34454415</v>
@@ -6006,7 +6006,7 @@
         <v>88.40551948547363</v>
       </c>
       <c r="N130" t="n">
-        <v>87.35298706054688</v>
+        <v>87.35298751831054</v>
       </c>
     </row>
     <row r="131">
@@ -6041,7 +6041,7 @@
         <v>0.00866557349989594</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.04983191111104823</v>
+        <v>-0.04983198782038967</v>
       </c>
       <c r="L131" t="n">
         <v>33608320</v>
@@ -6050,7 +6050,7 @@
         <v>88.42453155517578</v>
       </c>
       <c r="N131" t="n">
-        <v>87.45491516113282</v>
+        <v>87.45491561889648</v>
       </c>
     </row>
     <row r="132">
@@ -6058,16 +6058,16 @@
         <v>45749</v>
       </c>
       <c r="B132" t="n">
-        <v>90.65671328591026</v>
+        <v>90.6567287015767</v>
       </c>
       <c r="C132" t="n">
-        <v>90.65671328591026</v>
+        <v>90.6567287015767</v>
       </c>
       <c r="D132" t="n">
-        <v>88.97843146160942</v>
+        <v>88.97844659189344</v>
       </c>
       <c r="E132" t="n">
-        <v>89.73414611816406</v>
+        <v>89.73416137695312</v>
       </c>
       <c r="F132" t="n">
         <v>43488400</v>
@@ -6082,19 +6082,19 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.0006558559336269365</v>
+        <v>-0.0006556860007512766</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.05045508449008906</v>
+        <v>-0.05045499968433753</v>
       </c>
       <c r="L132" t="n">
         <v>33271945</v>
       </c>
       <c r="M132" t="n">
-        <v>88.47629356384277</v>
+        <v>88.47629470825196</v>
       </c>
       <c r="N132" t="n">
-        <v>87.54051177978516</v>
+        <v>87.54051239013671</v>
       </c>
     </row>
     <row r="133">
@@ -6126,19 +6126,19 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.004593749473925213</v>
+        <v>0.004593578648412588</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.0460931130339971</v>
+        <v>-0.04609319004518053</v>
       </c>
       <c r="L133" t="n">
         <v>34003940</v>
       </c>
       <c r="M133" t="n">
-        <v>88.5633358001709</v>
+        <v>88.56333694458007</v>
       </c>
       <c r="N133" t="n">
-        <v>87.64328933715821</v>
+        <v>87.64328979492187</v>
       </c>
     </row>
     <row r="134">
@@ -6173,16 +6173,16 @@
         <v>0.01088741182890773</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.03570753590916687</v>
+        <v>-0.03570761375880283</v>
       </c>
       <c r="L134" t="n">
         <v>36798470</v>
       </c>
       <c r="M134" t="n">
-        <v>88.71363067626953</v>
+        <v>88.71363258361816</v>
       </c>
       <c r="N134" t="n">
-        <v>87.77890716552734</v>
+        <v>87.77890792846679</v>
       </c>
     </row>
     <row r="135">
@@ -6190,16 +6190,16 @@
         <v>45754</v>
       </c>
       <c r="B135" t="n">
-        <v>90.17580453155425</v>
+        <v>90.17579674711533</v>
       </c>
       <c r="C135" t="n">
-        <v>90.48005973476998</v>
+        <v>90.48005192406619</v>
       </c>
       <c r="D135" t="n">
-        <v>88.13439011968458</v>
+        <v>88.13438251147105</v>
       </c>
       <c r="E135" t="n">
-        <v>88.37975311279297</v>
+        <v>88.37974548339844</v>
       </c>
       <c r="F135" t="n">
         <v>124987600</v>
@@ -6214,19 +6214,19 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.03015620999662938</v>
+        <v>-0.03015629371853001</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.06478694195445722</v>
+        <v>-0.06478709818883455</v>
       </c>
       <c r="L135" t="n">
         <v>40975810</v>
       </c>
       <c r="M135" t="n">
-        <v>88.6805591583252</v>
+        <v>88.68056106567383</v>
       </c>
       <c r="N135" t="n">
-        <v>87.85198699951172</v>
+        <v>87.85198745727538</v>
       </c>
     </row>
     <row r="136">
@@ -6234,16 +6234,16 @@
         <v>45755</v>
       </c>
       <c r="B136" t="n">
-        <v>87.62403146248329</v>
+        <v>87.62403917218727</v>
       </c>
       <c r="C136" t="n">
-        <v>88.5269654858178</v>
+        <v>88.52697327496749</v>
       </c>
       <c r="D136" t="n">
-        <v>86.58369476115806</v>
+        <v>86.58370237932678</v>
       </c>
       <c r="E136" t="n">
-        <v>86.71128082275391</v>
+        <v>86.71128845214844</v>
       </c>
       <c r="F136" t="n">
         <v>73861900</v>
@@ -6258,19 +6258,19 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.01887844479390777</v>
+        <v>-0.01887827377329809</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.08244231004131164</v>
+        <v>-0.08244230338554626</v>
       </c>
       <c r="L136" t="n">
         <v>42641120</v>
       </c>
       <c r="M136" t="n">
-        <v>88.59584732055664</v>
+        <v>88.59584960937499</v>
       </c>
       <c r="N136" t="n">
-        <v>87.8716862487793</v>
+        <v>87.87168701171875</v>
       </c>
     </row>
     <row r="137">
@@ -6278,16 +6278,16 @@
         <v>45756</v>
       </c>
       <c r="B137" t="n">
-        <v>85.65131235733327</v>
+        <v>85.65130486529755</v>
       </c>
       <c r="C137" t="n">
-        <v>87.26090051889565</v>
+        <v>87.26089288606708</v>
       </c>
       <c r="D137" t="n">
-        <v>84.29691129910708</v>
+        <v>84.29690392554265</v>
       </c>
       <c r="E137" t="n">
-        <v>87.22164154052734</v>
+        <v>87.22163391113281</v>
       </c>
       <c r="F137" t="n">
         <v>131353500</v>
@@ -6302,19 +6302,19 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0.005885747655102191</v>
+        <v>0.005885571164889525</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.07704179701921632</v>
+        <v>-0.07704195226422983</v>
       </c>
       <c r="L137" t="n">
         <v>47572065</v>
       </c>
       <c r="M137" t="n">
-        <v>88.56305809020996</v>
+        <v>88.56305961608886</v>
       </c>
       <c r="N137" t="n">
-        <v>87.90275817871094</v>
+        <v>87.90275894165039</v>
       </c>
     </row>
     <row r="138">
@@ -6346,19 +6346,19 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.02756843211545523</v>
+        <v>-0.027568347055548</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.1024863075834946</v>
+        <v>-0.1024863800419206</v>
       </c>
       <c r="L138" t="n">
         <v>49567895</v>
       </c>
       <c r="M138" t="n">
-        <v>88.37141151428223</v>
+        <v>88.37141304016113</v>
       </c>
       <c r="N138" t="n">
-        <v>87.88923614501954</v>
+        <v>87.88923690795899</v>
       </c>
     </row>
     <row r="139">
@@ -6393,16 +6393,16 @@
         <v>0.005438537091900564</v>
       </c>
       <c r="K139" t="n">
-        <v>-0.09760514607679882</v>
+        <v>-0.09760521892929264</v>
       </c>
       <c r="L139" t="n">
         <v>53075700</v>
       </c>
       <c r="M139" t="n">
-        <v>88.22630004882812</v>
+        <v>88.2263011932373</v>
       </c>
       <c r="N139" t="n">
-        <v>87.87852844238282</v>
+        <v>87.87852920532227</v>
       </c>
     </row>
     <row r="140">
@@ -6437,16 +6437,16 @@
         <v>0.007135517850201278</v>
       </c>
       <c r="K140" t="n">
-        <v>-0.09116609148870003</v>
+        <v>-0.09116616486103413</v>
       </c>
       <c r="L140" t="n">
         <v>53620505</v>
       </c>
       <c r="M140" t="n">
-        <v>88.0896095275879</v>
+        <v>88.08961029052735</v>
       </c>
       <c r="N140" t="n">
-        <v>87.89125915527343</v>
+        <v>87.8912599182129</v>
       </c>
     </row>
     <row r="141">
@@ -6481,16 +6481,16 @@
         <v>0.003542392654478643</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.08794664492704851</v>
+        <v>-0.08794671855929626</v>
       </c>
       <c r="L141" t="n">
         <v>53565465</v>
       </c>
       <c r="M141" t="n">
-        <v>87.96373100280762</v>
+        <v>87.96373176574707</v>
       </c>
       <c r="N141" t="n">
-        <v>87.89619247436524</v>
+        <v>87.8961930847168</v>
       </c>
     </row>
     <row r="142">
@@ -6498,16 +6498,16 @@
         <v>45763</v>
       </c>
       <c r="B142" t="n">
-        <v>86.17149243685262</v>
+        <v>86.1714772661838</v>
       </c>
       <c r="C142" t="n">
-        <v>86.85850587232726</v>
+        <v>86.85849058070831</v>
       </c>
       <c r="D142" t="n">
-        <v>85.84761146532107</v>
+        <v>85.84759635167217</v>
       </c>
       <c r="E142" t="n">
-        <v>86.67202758789062</v>
+        <v>86.67201232910156</v>
       </c>
       <c r="F142" t="n">
         <v>35607300</v>
@@ -6522,19 +6522,19 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0.005579680915012819</v>
+        <v>0.00557950388063766</v>
       </c>
       <c r="K142" t="n">
-        <v>-0.0828576782282745</v>
+        <v>-0.08285791373614959</v>
       </c>
       <c r="L142" t="n">
         <v>53776895</v>
       </c>
       <c r="M142" t="n">
-        <v>87.83891716003419</v>
+        <v>87.83891677856445</v>
       </c>
       <c r="N142" t="n">
-        <v>87.90547988891602</v>
+        <v>87.90548019409179</v>
       </c>
     </row>
     <row r="143">
@@ -6542,16 +6542,16 @@
         <v>45764</v>
       </c>
       <c r="B143" t="n">
-        <v>86.40703676759635</v>
+        <v>86.40702909374841</v>
       </c>
       <c r="C143" t="n">
-        <v>86.56406519714767</v>
+        <v>86.56405750935396</v>
       </c>
       <c r="D143" t="n">
-        <v>85.61206302725954</v>
+        <v>85.61205542401358</v>
       </c>
       <c r="E143" t="n">
-        <v>85.906494140625</v>
+        <v>85.90648651123047</v>
       </c>
       <c r="F143" t="n">
         <v>31758400</v>
@@ -6566,19 +6566,19 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.008832531885669015</v>
+        <v>-0.008832445414608814</v>
       </c>
       <c r="K143" t="n">
-        <v>-0.09095836702901983</v>
+        <v>-0.0909585211505155</v>
       </c>
       <c r="L143" t="n">
         <v>53582525</v>
       </c>
       <c r="M143" t="n">
-        <v>87.67289276123047</v>
+        <v>87.67289161682129</v>
       </c>
       <c r="N143" t="n">
-        <v>87.87099060058594</v>
+        <v>87.87099075317383</v>
       </c>
     </row>
     <row r="144">
@@ -6610,19 +6610,19 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.01747976187431266</v>
+        <v>-0.01747967461623889</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.1068481983071888</v>
+        <v>-0.1068482704134691</v>
       </c>
       <c r="L144" t="n">
         <v>54090080</v>
       </c>
       <c r="M144" t="n">
-        <v>87.45819091796875</v>
+        <v>87.4581901550293</v>
       </c>
       <c r="N144" t="n">
-        <v>87.80724853515625</v>
+        <v>87.80724884033204</v>
       </c>
     </row>
     <row r="145">
@@ -6657,16 +6657,16 @@
         <v>0.005581429823336315</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.101863134204454</v>
+        <v>-0.1018632067131905</v>
       </c>
       <c r="L145" t="n">
         <v>54318405</v>
       </c>
       <c r="M145" t="n">
-        <v>87.31251831054688</v>
+        <v>87.31251792907715</v>
       </c>
       <c r="N145" t="n">
-        <v>87.76423736572265</v>
+        <v>87.76423751831055</v>
       </c>
     </row>
     <row r="146">
@@ -6701,7 +6701,7 @@
         <v>0.009713198265902223</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.09313935275706586</v>
+        <v>-0.09313942597009406</v>
       </c>
       <c r="L146" t="n">
         <v>55405825</v>
@@ -6710,7 +6710,7 @@
         <v>87.20855560302735</v>
       </c>
       <c r="N146" t="n">
-        <v>87.742978515625</v>
+        <v>87.74297866821288</v>
       </c>
     </row>
     <row r="147">
@@ -6718,16 +6718,16 @@
         <v>45771</v>
       </c>
       <c r="B147" t="n">
-        <v>86.39722086271716</v>
+        <v>86.39721325147954</v>
       </c>
       <c r="C147" t="n">
-        <v>86.71128521229241</v>
+        <v>86.71127757338702</v>
       </c>
       <c r="D147" t="n">
-        <v>86.13223210971621</v>
+        <v>86.13222452182301</v>
       </c>
       <c r="E147" t="n">
-        <v>86.60332489013672</v>
+        <v>86.60331726074219</v>
       </c>
       <c r="F147" t="n">
         <v>24190800</v>
@@ -6742,16 +6742,16 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01053599504527813</v>
+        <v>0.01053590602123888</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.08358467347095655</v>
+        <v>-0.08358482818774826</v>
       </c>
       <c r="L147" t="n">
         <v>55360585</v>
       </c>
       <c r="M147" t="n">
-        <v>87.17858963012695</v>
+        <v>87.17858848571777</v>
       </c>
       <c r="N147" t="n">
         <v>87.75089187622071</v>
@@ -6762,16 +6762,16 @@
         <v>45772</v>
       </c>
       <c r="B148" t="n">
-        <v>87.25108095949382</v>
+        <v>87.25108858974683</v>
       </c>
       <c r="C148" t="n">
-        <v>87.45718497306248</v>
+        <v>87.45719262133963</v>
       </c>
       <c r="D148" t="n">
-        <v>86.95664237560474</v>
+        <v>86.95664998010861</v>
       </c>
       <c r="E148" t="n">
-        <v>87.24126434326172</v>
+        <v>87.24127197265625</v>
       </c>
       <c r="F148" t="n">
         <v>22513900</v>
@@ -6786,16 +6786,16 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0.007366223570911101</v>
+        <v>0.007366400411583873</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.0768341532919341</v>
+        <v>-0.07683414708892877</v>
       </c>
       <c r="L148" t="n">
         <v>55302555</v>
       </c>
       <c r="M148" t="n">
-        <v>87.19323272705078</v>
+        <v>87.19323234558105</v>
       </c>
       <c r="N148" t="n">
         <v>87.7949610900879</v>
@@ -6830,16 +6830,16 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0.006300018531009588</v>
+        <v>0.006299930528397057</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.07101819135047815</v>
+        <v>-0.07101826634940056</v>
       </c>
       <c r="L149" t="n">
         <v>54315610</v>
       </c>
       <c r="M149" t="n">
-        <v>87.17521438598632</v>
+        <v>87.17521362304687</v>
       </c>
       <c r="N149" t="n">
         <v>87.82175140380859</v>
@@ -6850,16 +6850,16 @@
         <v>45776</v>
       </c>
       <c r="B150" t="n">
-        <v>87.66328726590754</v>
+        <v>87.66330237583082</v>
       </c>
       <c r="C150" t="n">
-        <v>88.53677889631285</v>
+        <v>88.53679415679393</v>
       </c>
       <c r="D150" t="n">
-        <v>87.64366152171281</v>
+        <v>87.64367662825333</v>
       </c>
       <c r="E150" t="n">
-        <v>88.52696228027344</v>
+        <v>88.5269775390625</v>
       </c>
       <c r="F150" t="n">
         <v>22129500</v>
@@ -6874,10 +6874,10 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.008384427918939563</v>
+        <v>0.008384601727289942</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.06322921033785012</v>
+        <v>-0.06322912450081297</v>
       </c>
       <c r="L150" t="n">
         <v>53480870</v>
@@ -6886,7 +6886,7 @@
         <v>87.15048179626464</v>
       </c>
       <c r="N150" t="n">
-        <v>87.85409942626953</v>
+        <v>87.85409973144532</v>
       </c>
     </row>
     <row r="151">
@@ -6918,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.008093054746166728</v>
+        <v>-0.008093225714376318</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.07081054762319572</v>
+        <v>-0.07081062263888183</v>
       </c>
       <c r="L151" t="n">
         <v>53622395</v>
@@ -6930,7 +6930,7 @@
         <v>87.05135536193848</v>
       </c>
       <c r="N151" t="n">
-        <v>87.89259063720704</v>
+        <v>87.89259094238281</v>
       </c>
     </row>
     <row r="152">
@@ -6938,16 +6938,16 @@
         <v>45778</v>
       </c>
       <c r="B152" t="n">
-        <v>87.92675066274603</v>
+        <v>87.92674298431832</v>
       </c>
       <c r="C152" t="n">
-        <v>87.94644862159559</v>
+        <v>87.94644094144772</v>
       </c>
       <c r="D152" t="n">
-        <v>86.981090813802</v>
+        <v>86.98108321795645</v>
       </c>
       <c r="E152" t="n">
-        <v>87.36526489257812</v>
+        <v>87.36525726318359</v>
       </c>
       <c r="F152" t="n">
         <v>29932800</v>
@@ -6962,16 +6962,16 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.005070507413050707</v>
+        <v>-0.005070594297805653</v>
       </c>
       <c r="K152" t="n">
-        <v>-0.07552200962960087</v>
+        <v>-0.07552216499731068</v>
       </c>
       <c r="L152" t="n">
         <v>52944615</v>
       </c>
       <c r="M152" t="n">
-        <v>86.93291130065919</v>
+        <v>86.93291015625</v>
       </c>
       <c r="N152" t="n">
         <v>87.9200325012207</v>
@@ -6982,16 +6982,16 @@
         <v>45779</v>
       </c>
       <c r="B153" t="n">
-        <v>86.3998959669653</v>
+        <v>86.39990359462017</v>
       </c>
       <c r="C153" t="n">
-        <v>86.75451933496311</v>
+        <v>86.75452699392524</v>
       </c>
       <c r="D153" t="n">
-        <v>86.23243701969861</v>
+        <v>86.23244463256967</v>
       </c>
       <c r="E153" t="n">
-        <v>86.41960144042969</v>
+        <v>86.41960906982422</v>
       </c>
       <c r="F153" t="n">
         <v>32090400</v>
@@ -7006,16 +7006,16 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>-0.01082424981268237</v>
+        <v>-0.01082407610282266</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.08552879034369665</v>
+        <v>-0.08552878343875248</v>
       </c>
       <c r="L153" t="n">
         <v>51675765</v>
       </c>
       <c r="M153" t="n">
-        <v>86.74657325744629</v>
+        <v>86.74657249450684</v>
       </c>
       <c r="N153" t="n">
         <v>87.92212677001953</v>
@@ -7026,16 +7026,16 @@
         <v>45782</v>
       </c>
       <c r="B154" t="n">
-        <v>86.04527773022323</v>
+        <v>86.04526245219442</v>
       </c>
       <c r="C154" t="n">
-        <v>86.10438663870519</v>
+        <v>86.10437135018111</v>
       </c>
       <c r="D154" t="n">
-        <v>85.53304812114443</v>
+        <v>85.53303293406609</v>
       </c>
       <c r="E154" t="n">
-        <v>85.93692016601562</v>
+        <v>85.93690490722656</v>
       </c>
       <c r="F154" t="n">
         <v>22862800</v>
@@ -7050,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>-0.005585321690551703</v>
+        <v>-0.005585586046884861</v>
       </c>
       <c r="K154" t="n">
-        <v>-0.09063640622637503</v>
+        <v>-0.0906366411062548</v>
       </c>
       <c r="L154" t="n">
         <v>48179195</v>
       </c>
       <c r="M154" t="n">
-        <v>86.48702812194824</v>
+        <v>86.48702659606934</v>
       </c>
       <c r="N154" t="n">
-        <v>87.89370513916016</v>
+        <v>87.89370483398437</v>
       </c>
     </row>
     <row r="155">
@@ -7094,19 +7094,19 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0.003324063621167994</v>
+        <v>0.003324241769429914</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.08761362378589754</v>
+        <v>-0.08761369744503111</v>
       </c>
       <c r="L155" t="n">
         <v>42984575</v>
       </c>
       <c r="M155" t="n">
-        <v>86.37916946411133</v>
+        <v>86.37916831970215</v>
       </c>
       <c r="N155" t="n">
-        <v>87.86592727661133</v>
+        <v>87.86592712402344</v>
       </c>
     </row>
     <row r="156">
@@ -7141,16 +7141,16 @@
         <v>0.004227188111596503</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.08375679494318267</v>
+        <v>-0.08375686891368728</v>
       </c>
       <c r="L156" t="n">
         <v>40449560</v>
       </c>
       <c r="M156" t="n">
-        <v>86.37295837402344</v>
+        <v>86.37295684814453</v>
       </c>
       <c r="N156" t="n">
-        <v>87.81521850585938</v>
+        <v>87.81521820068359</v>
       </c>
     </row>
     <row r="157">
@@ -7158,16 +7158,16 @@
         <v>45785</v>
       </c>
       <c r="B157" t="n">
-        <v>86.70525682554833</v>
+        <v>86.70526455149512</v>
       </c>
       <c r="C157" t="n">
-        <v>86.74466025415923</v>
+        <v>86.74466798361709</v>
       </c>
       <c r="D157" t="n">
-        <v>85.59213815017416</v>
+        <v>85.59214577693555</v>
       </c>
       <c r="E157" t="n">
-        <v>85.62168884277344</v>
+        <v>85.62169647216797</v>
       </c>
       <c r="F157" t="n">
         <v>25483700</v>
@@ -7182,19 +7182,19 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.01114912770034804</v>
+        <v>-0.011149039587937</v>
       </c>
       <c r="K157" t="n">
-        <v>-0.09397210744093731</v>
+        <v>-0.09397209985434396</v>
       </c>
       <c r="L157" t="n">
         <v>35156070</v>
       </c>
       <c r="M157" t="n">
-        <v>86.29296073913574</v>
+        <v>86.29295997619629</v>
       </c>
       <c r="N157" t="n">
-        <v>87.73467361450196</v>
+        <v>87.73467330932617</v>
       </c>
     </row>
     <row r="158">
@@ -7226,19 +7226,19 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0.001495820133042169</v>
+        <v>0.001495730893900094</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.09261685267814967</v>
+        <v>-0.09261692593336068</v>
       </c>
       <c r="L158" t="n">
         <v>32076865</v>
       </c>
       <c r="M158" t="n">
-        <v>86.33959503173828</v>
+        <v>86.33959426879883</v>
       </c>
       <c r="N158" t="n">
-        <v>87.66936370849609</v>
+        <v>87.66936340332032</v>
       </c>
     </row>
     <row r="159">
@@ -7246,16 +7246,16 @@
         <v>45789</v>
       </c>
       <c r="B159" t="n">
-        <v>85.08975914214372</v>
+        <v>85.08976678392358</v>
       </c>
       <c r="C159" t="n">
-        <v>85.48378593741754</v>
+        <v>85.48379361458434</v>
       </c>
       <c r="D159" t="n">
-        <v>84.90260223885157</v>
+        <v>84.90260986382316</v>
       </c>
       <c r="E159" t="n">
-        <v>84.95185089111328</v>
+        <v>84.95185852050781</v>
       </c>
       <c r="F159" t="n">
         <v>32115000</v>
@@ -7270,16 +7270,16 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.009305128844591559</v>
+        <v>-0.009305039871815191</v>
       </c>
       <c r="K159" t="n">
-        <v>-0.1010601697753905</v>
+        <v>-0.101060161616561</v>
       </c>
       <c r="L159" t="n">
         <v>28941910</v>
       </c>
       <c r="M159" t="n">
-        <v>86.32326965332031</v>
+        <v>86.32326927185059</v>
       </c>
       <c r="N159" t="n">
         <v>87.5662580871582</v>
@@ -7290,16 +7290,16 @@
         <v>45790</v>
       </c>
       <c r="B160" t="n">
-        <v>84.84348396774126</v>
+        <v>84.84349161845421</v>
       </c>
       <c r="C160" t="n">
-        <v>85.00109767462453</v>
+        <v>85.00110533955021</v>
       </c>
       <c r="D160" t="n">
-        <v>84.22289690661759</v>
+        <v>84.22290450136946</v>
       </c>
       <c r="E160" t="n">
-        <v>84.60707092285156</v>
+        <v>84.60707855224609</v>
       </c>
       <c r="F160" t="n">
         <v>53912200</v>
@@ -7314,10 +7314,10 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.004058533918273821</v>
+        <v>-0.004058533553783161</v>
       </c>
       <c r="K160" t="n">
-        <v>-0.1047085475668443</v>
+        <v>-0.1047085391134726</v>
       </c>
       <c r="L160" t="n">
         <v>29757700</v>
@@ -7326,7 +7326,7 @@
         <v>86.25928001403808</v>
       </c>
       <c r="N160" t="n">
-        <v>87.4478466796875</v>
+        <v>87.44784683227539</v>
       </c>
     </row>
     <row r="161">
@@ -7358,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.006636297120423795</v>
+        <v>-0.006636386696422969</v>
       </c>
       <c r="K161" t="n">
-        <v>-0.1106499676545665</v>
+        <v>-0.1106500394539209</v>
       </c>
       <c r="L161" t="n">
         <v>30735995</v>
@@ -7370,7 +7370,7 @@
         <v>86.15200424194336</v>
       </c>
       <c r="N161" t="n">
-        <v>87.34050262451171</v>
+        <v>87.34050277709962</v>
       </c>
     </row>
     <row r="162">
@@ -7405,16 +7405,16 @@
         <v>0.008790467413651193</v>
       </c>
       <c r="K162" t="n">
-        <v>-0.1028321651759043</v>
+        <v>-0.1028322376064087</v>
       </c>
       <c r="L162" t="n">
         <v>31928030</v>
       </c>
       <c r="M162" t="n">
-        <v>86.05762252807617</v>
+        <v>86.05762329101563</v>
       </c>
       <c r="N162" t="n">
-        <v>87.26221237182617</v>
+        <v>87.26221267700195</v>
       </c>
     </row>
     <row r="163">
@@ -7422,16 +7422,16 @@
         <v>45793</v>
       </c>
       <c r="B163" t="n">
-        <v>85.57244920476136</v>
+        <v>85.57244152497572</v>
       </c>
       <c r="C163" t="n">
-        <v>85.59214716342331</v>
+        <v>85.59213948186985</v>
       </c>
       <c r="D163" t="n">
-        <v>84.91245110032261</v>
+        <v>84.91244347976918</v>
       </c>
       <c r="E163" t="n">
-        <v>85.01096343994141</v>
+        <v>85.01095581054688</v>
       </c>
       <c r="F163" t="n">
         <v>31778200</v>
@@ -7446,19 +7446,19 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0.002672309378503934</v>
+        <v>0.002672219392667596</v>
       </c>
       <c r="K163" t="n">
-        <v>-0.1004346551568118</v>
+        <v>-0.1004348085132644</v>
       </c>
       <c r="L163" t="n">
         <v>31929020</v>
       </c>
       <c r="M163" t="n">
-        <v>86.01284599304199</v>
+        <v>86.01284675598144</v>
       </c>
       <c r="N163" t="n">
-        <v>87.1943212890625</v>
+        <v>87.19432144165039</v>
       </c>
     </row>
     <row r="164">
@@ -7466,16 +7466,16 @@
         <v>45796</v>
       </c>
       <c r="B164" t="n">
-        <v>83.64172272937552</v>
+        <v>83.641715201056</v>
       </c>
       <c r="C164" t="n">
-        <v>84.83364833956628</v>
+        <v>84.83364070396543</v>
       </c>
       <c r="D164" t="n">
-        <v>83.56291586702339</v>
+        <v>83.56290834579703</v>
       </c>
       <c r="E164" t="n">
-        <v>84.76469421386719</v>
+        <v>84.76468658447266</v>
       </c>
       <c r="F164" t="n">
         <v>49361900</v>
@@ -7490,19 +7490,19 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>-0.002896911364240751</v>
+        <v>-0.002896911624227005</v>
       </c>
       <c r="K164" t="n">
-        <v>-0.1030406162271652</v>
+        <v>-0.1030407693732323</v>
       </c>
       <c r="L164" t="n">
         <v>32429955</v>
       </c>
       <c r="M164" t="n">
-        <v>86.03083724975586</v>
+        <v>86.03083763122558</v>
       </c>
       <c r="N164" t="n">
-        <v>87.12717666625977</v>
+        <v>87.12717697143555</v>
       </c>
     </row>
     <row r="165">
@@ -7534,19 +7534,19 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>-0.007205130240665492</v>
+        <v>-0.007205040882419023</v>
       </c>
       <c r="K165" t="n">
-        <v>-0.1095033254078356</v>
+        <v>-0.1095033972997612</v>
       </c>
       <c r="L165" t="n">
         <v>32577005</v>
       </c>
       <c r="M165" t="n">
-        <v>85.99473648071289</v>
+        <v>85.99473686218262</v>
       </c>
       <c r="N165" t="n">
-        <v>87.0294320678711</v>
+        <v>87.02943252563476</v>
       </c>
     </row>
     <row r="166">
@@ -7554,16 +7554,16 @@
         <v>45798</v>
       </c>
       <c r="B166" t="n">
-        <v>83.41516095129569</v>
+        <v>83.41515325739165</v>
       </c>
       <c r="C166" t="n">
-        <v>83.78948230156348</v>
+        <v>83.78947457313343</v>
       </c>
       <c r="D166" t="n">
-        <v>82.50890451458214</v>
+        <v>82.50889690426783</v>
       </c>
       <c r="E166" t="n">
-        <v>82.71576690673828</v>
+        <v>82.71575927734375</v>
       </c>
       <c r="F166" t="n">
         <v>77053100</v>
@@ -7578,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>-0.01708994746889614</v>
+        <v>-0.01709003812886167</v>
       </c>
       <c r="K166" t="n">
-        <v>-0.1247218667978424</v>
+        <v>-0.1247220181935301</v>
       </c>
       <c r="L166" t="n">
         <v>34225550</v>
@@ -7590,7 +7590,7 @@
         <v>85.84550552368164</v>
       </c>
       <c r="N166" t="n">
-        <v>86.91563705444337</v>
+        <v>86.91563735961914</v>
       </c>
     </row>
     <row r="167">
@@ -7598,16 +7598,16 @@
         <v>45799</v>
       </c>
       <c r="B167" t="n">
-        <v>82.27247205155761</v>
+        <v>82.2724796005089</v>
       </c>
       <c r="C167" t="n">
-        <v>83.16888313712874</v>
+        <v>83.16889076833068</v>
       </c>
       <c r="D167" t="n">
-        <v>82.05576446870403</v>
+        <v>82.05577199777122</v>
       </c>
       <c r="E167" t="n">
-        <v>83.14918518066406</v>
+        <v>83.14919281005859</v>
       </c>
       <c r="F167" t="n">
         <v>61747900</v>
@@ -7622,19 +7622,19 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0.005239850758011588</v>
+        <v>0.005240035713890423</v>
       </c>
       <c r="K167" t="n">
-        <v>-0.1201355400081121</v>
+        <v>-0.1201355303092823</v>
       </c>
       <c r="L167" t="n">
         <v>36103405</v>
       </c>
       <c r="M167" t="n">
-        <v>85.67279853820801</v>
+        <v>85.67279930114746</v>
       </c>
       <c r="N167" t="n">
-        <v>86.82107223510742</v>
+        <v>86.8210725402832</v>
       </c>
     </row>
     <row r="168">
@@ -7642,16 +7642,16 @@
         <v>45800</v>
       </c>
       <c r="B168" t="n">
-        <v>83.50380935011594</v>
+        <v>83.50380170087023</v>
       </c>
       <c r="C168" t="n">
-        <v>83.55306551935338</v>
+        <v>83.55305786559563</v>
       </c>
       <c r="D168" t="n">
-        <v>83.05068115178925</v>
+        <v>83.05067354405169</v>
       </c>
       <c r="E168" t="n">
-        <v>83.28710174560547</v>
+        <v>83.28709411621094</v>
       </c>
       <c r="F168" t="n">
         <v>47139200</v>
@@ -7666,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>0.00165866405836379</v>
+        <v>0.001658480395201778</v>
       </c>
       <c r="K168" t="n">
-        <v>-0.1186761404520918</v>
+        <v>-0.1186762923358656</v>
       </c>
       <c r="L168" t="n">
         <v>37334670</v>
@@ -7678,7 +7678,7 @@
         <v>85.4750904083252</v>
       </c>
       <c r="N168" t="n">
-        <v>86.71381408691406</v>
+        <v>86.71381423950196</v>
       </c>
     </row>
     <row r="169">
@@ -7686,16 +7686,16 @@
         <v>45804</v>
       </c>
       <c r="B169" t="n">
-        <v>84.07513410265423</v>
+        <v>84.07514169823088</v>
       </c>
       <c r="C169" t="n">
-        <v>84.74497731143688</v>
+        <v>84.74498496752899</v>
       </c>
       <c r="D169" t="n">
-        <v>83.87812448877965</v>
+        <v>83.87813206655791</v>
       </c>
       <c r="E169" t="n">
-        <v>84.449462890625</v>
+        <v>84.44947052001953</v>
       </c>
       <c r="F169" t="n">
         <v>56773400</v>
@@ -7710,19 +7710,19 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0139560762790123</v>
+        <v>0.01395626076456358</v>
       </c>
       <c r="K169" t="n">
-        <v>-0.1063763174417277</v>
+        <v>-0.106376308853713</v>
       </c>
       <c r="L169" t="n">
         <v>39166815</v>
       </c>
       <c r="M169" t="n">
-        <v>85.30801925659179</v>
+        <v>85.30801963806152</v>
       </c>
       <c r="N169" t="n">
-        <v>86.63919158935546</v>
+        <v>86.63919174194336</v>
       </c>
     </row>
     <row r="170">
@@ -7730,16 +7730,16 @@
         <v>45805</v>
       </c>
       <c r="B170" t="n">
-        <v>84.1342552528327</v>
+        <v>84.13424761896894</v>
       </c>
       <c r="C170" t="n">
-        <v>84.26231076895823</v>
+        <v>84.26230312347543</v>
       </c>
       <c r="D170" t="n">
-        <v>83.70082502065995</v>
+        <v>83.70081742612319</v>
       </c>
       <c r="E170" t="n">
-        <v>84.08499908447266</v>
+        <v>84.08499145507812</v>
       </c>
       <c r="F170" t="n">
         <v>34806800</v>
@@ -7754,19 +7754,19 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>-0.004315762275769353</v>
+        <v>-0.004315942571303633</v>
       </c>
       <c r="K170" t="n">
-        <v>-0.1102329848196468</v>
+        <v>-0.1102331373850567</v>
       </c>
       <c r="L170" t="n">
         <v>39800680</v>
       </c>
       <c r="M170" t="n">
-        <v>85.08592109680175</v>
+        <v>85.0859203338623</v>
       </c>
       <c r="N170" t="n">
-        <v>86.5484780883789</v>
+        <v>86.54847793579101</v>
       </c>
     </row>
     <row r="171">
@@ -7774,16 +7774,16 @@
         <v>45806</v>
       </c>
       <c r="B171" t="n">
-        <v>84.4888760914785</v>
+        <v>84.48886849573699</v>
       </c>
       <c r="C171" t="n">
-        <v>84.97156252049132</v>
+        <v>84.97155488135519</v>
       </c>
       <c r="D171" t="n">
-        <v>84.3608205677973</v>
+        <v>84.36081298356827</v>
       </c>
       <c r="E171" t="n">
-        <v>84.86320495605469</v>
+        <v>84.86319732666016</v>
       </c>
       <c r="F171" t="n">
         <v>38933200</v>
@@ -7798,19 +7798,19 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0.00925499054593848</v>
+        <v>0.009254991385683642</v>
       </c>
       <c r="K171" t="n">
-        <v>-0.1019981995060648</v>
+        <v>-0.1019983527362887</v>
       </c>
       <c r="L171" t="n">
         <v>39615810</v>
       </c>
       <c r="M171" t="n">
-        <v>84.93855590820313</v>
+        <v>84.93855476379395</v>
       </c>
       <c r="N171" t="n">
-        <v>86.47156860351562</v>
+        <v>86.47156829833985</v>
       </c>
     </row>
     <row r="172">
@@ -7842,19 +7842,19 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.001508919653444796</v>
+        <v>0.001509009691375462</v>
       </c>
       <c r="K172" t="n">
-        <v>-0.1006431869404707</v>
+        <v>-0.1006432595476966</v>
       </c>
       <c r="L172" t="n">
         <v>40571275</v>
       </c>
       <c r="M172" t="n">
-        <v>84.81985549926758</v>
+        <v>84.81985473632812</v>
       </c>
       <c r="N172" t="n">
-        <v>86.38802764892579</v>
+        <v>86.38802719116211</v>
       </c>
     </row>
     <row r="173">
@@ -7862,16 +7862,16 @@
         <v>45810</v>
       </c>
       <c r="B173" t="n">
-        <v>84.32880382315722</v>
+        <v>84.32881146419807</v>
       </c>
       <c r="C173" t="n">
-        <v>84.5067755696731</v>
+        <v>84.50678322683999</v>
       </c>
       <c r="D173" t="n">
-        <v>83.83443869877014</v>
+        <v>83.83444629501652</v>
       </c>
       <c r="E173" t="n">
-        <v>84.20027160644531</v>
+        <v>84.20027923583984</v>
       </c>
       <c r="F173" t="n">
         <v>46213100</v>
@@ -7886,19 +7886,19 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>-0.009306664450024704</v>
+        <v>-0.009306574683208391</v>
       </c>
       <c r="K173" t="n">
-        <v>-0.1090131990204594</v>
+        <v>-0.1090131902195628</v>
       </c>
       <c r="L173" t="n">
         <v>41277410</v>
       </c>
       <c r="M173" t="n">
-        <v>84.70888900756836</v>
+        <v>84.70888824462891</v>
       </c>
       <c r="N173" t="n">
-        <v>86.2874934387207</v>
+        <v>86.28749298095703</v>
       </c>
     </row>
     <row r="174">
@@ -7906,16 +7906,16 @@
         <v>45811</v>
       </c>
       <c r="B174" t="n">
-        <v>84.47712579926507</v>
+        <v>84.47711813127928</v>
       </c>
       <c r="C174" t="n">
-        <v>84.77374038622703</v>
+        <v>84.77373269131755</v>
       </c>
       <c r="D174" t="n">
-        <v>83.93332107471362</v>
+        <v>83.93331345608897</v>
       </c>
       <c r="E174" t="n">
-        <v>84.05197143554688</v>
+        <v>84.05196380615234</v>
       </c>
       <c r="F174" t="n">
         <v>33731300</v>
@@ -7930,19 +7930,19 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>-0.001761279008595129</v>
+        <v>-0.001761460069177212</v>
       </c>
       <c r="K174" t="n">
-        <v>-0.1105824753699599</v>
+        <v>-0.1105826279071547</v>
       </c>
       <c r="L174" t="n">
         <v>41820835</v>
       </c>
       <c r="M174" t="n">
-        <v>84.61464157104493</v>
+        <v>84.6146411895752</v>
       </c>
       <c r="N174" t="n">
-        <v>86.19455474853515</v>
+        <v>86.19455429077148</v>
       </c>
     </row>
     <row r="175">
@@ -7974,19 +7974,19 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01623330059563255</v>
+        <v>0.0162333928391023</v>
       </c>
       <c r="K175" t="n">
-        <v>-0.09614429333761709</v>
+        <v>-0.09614436630804946</v>
       </c>
       <c r="L175" t="n">
         <v>43638150</v>
       </c>
       <c r="M175" t="n">
-        <v>84.57433319091797</v>
+        <v>84.57433280944824</v>
       </c>
       <c r="N175" t="n">
-        <v>86.14709457397461</v>
+        <v>86.14709426879882</v>
       </c>
     </row>
     <row r="176">
@@ -7994,16 +7994,16 @@
         <v>45813</v>
       </c>
       <c r="B176" t="n">
-        <v>85.70314218271022</v>
+        <v>85.7031345330174</v>
       </c>
       <c r="C176" t="n">
-        <v>85.95032475620172</v>
+        <v>85.95031708444589</v>
       </c>
       <c r="D176" t="n">
-        <v>85.24832715269547</v>
+        <v>85.24831954359856</v>
       </c>
       <c r="E176" t="n">
-        <v>85.47573089599609</v>
+        <v>85.47572326660156</v>
       </c>
       <c r="F176" t="n">
         <v>37664700</v>
@@ -8018,19 +8018,19 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0006944630527792039</v>
+        <v>0.0006943737327724797</v>
       </c>
       <c r="K176" t="n">
-        <v>-0.09551659894429643</v>
+        <v>-0.09551675269779536</v>
       </c>
       <c r="L176" t="n">
         <v>44363305</v>
       </c>
       <c r="M176" t="n">
-        <v>84.51876678466797</v>
+        <v>84.51876602172851</v>
       </c>
       <c r="N176" t="n">
-        <v>86.10101638793945</v>
+        <v>86.10101608276368</v>
       </c>
     </row>
     <row r="177">
@@ -8062,19 +8062,19 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>-0.01272417709683826</v>
+        <v>-0.01272408897454491</v>
       </c>
       <c r="K177" t="n">
-        <v>-0.1070254059204798</v>
+        <v>-0.1070254780124539</v>
       </c>
       <c r="L177" t="n">
         <v>44995625</v>
       </c>
       <c r="M177" t="n">
-        <v>84.45708847045898</v>
+        <v>84.4570873260498</v>
       </c>
       <c r="N177" t="n">
-        <v>86.04472595214844</v>
+        <v>86.04472534179688</v>
       </c>
     </row>
     <row r="178">
@@ -8109,16 +8109,16 @@
         <v>0.001054613901917634</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.1060836624995043</v>
+        <v>-0.1060837346675075</v>
       </c>
       <c r="L178" t="n">
         <v>45473270</v>
       </c>
       <c r="M178" t="n">
-        <v>84.39345626831054</v>
+        <v>84.39345512390136</v>
       </c>
       <c r="N178" t="n">
-        <v>85.99530029296875</v>
+        <v>85.99529983520507</v>
       </c>
     </row>
     <row r="179">
@@ -8126,16 +8126,16 @@
         <v>45818</v>
       </c>
       <c r="B179" t="n">
-        <v>85.12966937461354</v>
+        <v>85.12967702355252</v>
       </c>
       <c r="C179" t="n">
-        <v>85.20876960164892</v>
+        <v>85.20877725769509</v>
       </c>
       <c r="D179" t="n">
-        <v>84.55620404372627</v>
+        <v>84.55621164113911</v>
       </c>
       <c r="E179" t="n">
-        <v>84.91214752197266</v>
+        <v>84.91215515136719</v>
       </c>
       <c r="F179" t="n">
         <v>24857000</v>
@@ -8150,19 +8150,19 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.005149655658547747</v>
+        <v>0.00514974597169493</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.1014803011738266</v>
+        <v>-0.101480292981079</v>
       </c>
       <c r="L179" t="n">
         <v>45110370</v>
       </c>
       <c r="M179" t="n">
-        <v>84.39147109985352</v>
+        <v>84.39146995544434</v>
       </c>
       <c r="N179" t="n">
-        <v>85.93051818847657</v>
+        <v>85.93051773071289</v>
       </c>
     </row>
     <row r="180">
@@ -8194,19 +8194,19 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0.003027600709998302</v>
+        <v>0.003027510587526594</v>
       </c>
       <c r="K180" t="n">
-        <v>-0.09875994229571294</v>
+        <v>-0.09876001505497789</v>
       </c>
       <c r="L180" t="n">
         <v>44231500</v>
       </c>
       <c r="M180" t="n">
-        <v>84.41957893371583</v>
+        <v>84.41957740783691</v>
       </c>
       <c r="N180" t="n">
-        <v>85.85347045898438</v>
+        <v>85.8534700012207</v>
       </c>
     </row>
     <row r="181">
@@ -8241,16 +8241,16 @@
         <v>0.01195730546009655</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.08798353963286776</v>
+        <v>-0.08798361326213744</v>
       </c>
       <c r="L181" t="n">
         <v>44276400</v>
       </c>
       <c r="M181" t="n">
-        <v>84.52668037414551</v>
+        <v>84.5266788482666</v>
       </c>
       <c r="N181" t="n">
-        <v>85.7813621520996</v>
+        <v>85.78136169433594</v>
       </c>
     </row>
     <row r="182">
@@ -8258,16 +8258,16 @@
         <v>45821</v>
       </c>
       <c r="B182" t="n">
-        <v>85.75258746381904</v>
+        <v>85.75257979907445</v>
       </c>
       <c r="C182" t="n">
-        <v>85.90089098312573</v>
+        <v>85.90088330512549</v>
       </c>
       <c r="D182" t="n">
-        <v>84.81328909553056</v>
+        <v>84.81328151474243</v>
       </c>
       <c r="E182" t="n">
-        <v>85.35709381103516</v>
+        <v>85.35708618164062</v>
       </c>
       <c r="F182" t="n">
         <v>49374000</v>
@@ -8282,19 +8282,19 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-0.009636282326014212</v>
+        <v>-0.009636370846782594</v>
       </c>
       <c r="K182" t="n">
-        <v>-0.09677198773093765</v>
+        <v>-0.09677214138308621</v>
       </c>
       <c r="L182" t="n">
         <v>43772700</v>
       </c>
       <c r="M182" t="n">
-        <v>84.55531539916993</v>
+        <v>84.55531349182129</v>
       </c>
       <c r="N182" t="n">
-        <v>85.69382110595703</v>
+        <v>85.69382019042969</v>
       </c>
     </row>
     <row r="183">
@@ -8302,16 +8302,16 @@
         <v>45824</v>
       </c>
       <c r="B183" t="n">
-        <v>85.10990268453212</v>
+        <v>85.10991036927706</v>
       </c>
       <c r="C183" t="n">
-        <v>85.45595676722887</v>
+        <v>85.45596448321973</v>
       </c>
       <c r="D183" t="n">
-        <v>84.49688720703125</v>
+        <v>84.49689483642578</v>
       </c>
       <c r="E183" t="n">
-        <v>84.49688720703125</v>
+        <v>84.49689483642578</v>
       </c>
       <c r="F183" t="n">
         <v>36496600</v>
@@ -8326,19 +8326,19 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>-0.01007774006350592</v>
+        <v>-0.0100775622001007</v>
       </c>
       <c r="K183" t="n">
-        <v>-0.1058744848566624</v>
+        <v>-0.1058744763091619</v>
       </c>
       <c r="L183" t="n">
         <v>44008620</v>
       </c>
       <c r="M183" t="n">
-        <v>84.52961158752441</v>
+        <v>84.52961044311523</v>
       </c>
       <c r="N183" t="n">
-        <v>85.5808316040039</v>
+        <v>85.58083084106445</v>
       </c>
     </row>
     <row r="184">
@@ -8370,19 +8370,19 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01216946800664842</v>
+        <v>0.01216937661583195</v>
       </c>
       <c r="K184" t="n">
-        <v>-0.09499345300619755</v>
+        <v>-0.09499352606954015</v>
       </c>
       <c r="L184" t="n">
         <v>43266605</v>
       </c>
       <c r="M184" t="n">
-        <v>84.56763534545898</v>
+        <v>84.56763458251953</v>
       </c>
       <c r="N184" t="n">
-        <v>85.46877853393555</v>
+        <v>85.4687777709961</v>
       </c>
     </row>
     <row r="185">
@@ -8417,16 +8417,16 @@
         <v>0.001734172884726215</v>
       </c>
       <c r="K185" t="n">
-        <v>-0.09342401519190124</v>
+        <v>-0.09342408838194827</v>
       </c>
       <c r="L185" t="n">
         <v>43421400</v>
       </c>
       <c r="M185" t="n">
-        <v>84.64361190795898</v>
+        <v>84.64361114501953</v>
       </c>
       <c r="N185" t="n">
-        <v>85.41465316772461</v>
+        <v>85.41465255737305</v>
       </c>
     </row>
     <row r="186">
@@ -8461,16 +8461,16 @@
         <v>-0.001846582117736584</v>
       </c>
       <c r="K186" t="n">
-        <v>-0.09509808219381732</v>
+        <v>-0.0950981552487129</v>
       </c>
       <c r="L186" t="n">
         <v>40868840</v>
       </c>
       <c r="M186" t="n">
-        <v>84.78358764648438</v>
+        <v>84.78358726501465</v>
       </c>
       <c r="N186" t="n">
-        <v>85.39073318481445</v>
+        <v>85.390732421875</v>
       </c>
     </row>
     <row r="187">
@@ -8505,16 +8505,16 @@
         <v>0.003237318576646775</v>
       </c>
       <c r="K187" t="n">
-        <v>-0.09216862640526002</v>
+        <v>-0.09216869969665764</v>
       </c>
       <c r="L187" t="n">
         <v>39624035</v>
       </c>
       <c r="M187" t="n">
-        <v>84.91573448181153</v>
+        <v>84.91573371887208</v>
       </c>
       <c r="N187" t="n">
-        <v>85.36214279174804</v>
+        <v>85.36214218139648</v>
       </c>
     </row>
     <row r="188">
@@ -8549,16 +8549,16 @@
         <v>0.007260684689876173</v>
       </c>
       <c r="K188" t="n">
-        <v>-0.08557714905001146</v>
+        <v>-0.08557722287355474</v>
       </c>
       <c r="L188" t="n">
         <v>38915030</v>
       </c>
       <c r="M188" t="n">
-        <v>85.07213096618652</v>
+        <v>85.0721305847168</v>
       </c>
       <c r="N188" t="n">
-        <v>85.39410186767579</v>
+        <v>85.39410125732422</v>
       </c>
     </row>
     <row r="189">
@@ -8593,16 +8593,16 @@
         <v>0.001258542839588817</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.08442630871859191</v>
+        <v>-0.08442638263504532</v>
       </c>
       <c r="L189" t="n">
         <v>37393625</v>
       </c>
       <c r="M189" t="n">
-        <v>85.1758472442627</v>
+        <v>85.17584648132325</v>
       </c>
       <c r="N189" t="n">
-        <v>85.41901046752929</v>
+        <v>85.41900985717774</v>
       </c>
     </row>
     <row r="190">
@@ -8637,16 +8637,16 @@
         <v>0.005027931778634587</v>
       </c>
       <c r="K190" t="n">
-        <v>-0.0798228666605163</v>
+        <v>-0.07982294094861664</v>
       </c>
       <c r="L190" t="n">
         <v>37176660</v>
       </c>
       <c r="M190" t="n">
-        <v>85.31953849792481</v>
+        <v>85.31953811645508</v>
       </c>
       <c r="N190" t="n">
-        <v>85.44044967651367</v>
+        <v>85.4404490661621</v>
       </c>
     </row>
     <row r="191">
@@ -8654,16 +8654,16 @@
         <v>45835</v>
       </c>
       <c r="B191" t="n">
-        <v>86.58311550058259</v>
+        <v>86.58310785547353</v>
       </c>
       <c r="C191" t="n">
-        <v>87.16647032327619</v>
+        <v>87.1664626266581</v>
       </c>
       <c r="D191" t="n">
-        <v>86.25683267823264</v>
+        <v>86.25682506193367</v>
       </c>
       <c r="E191" t="n">
-        <v>86.40514373779297</v>
+        <v>86.40513610839844</v>
       </c>
       <c r="F191" t="n">
         <v>74993500</v>
@@ -8678,19 +8678,19 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>-0.006367156240724703</v>
+        <v>-0.00636724397643873</v>
       </c>
       <c r="K191" t="n">
-        <v>-0.08568177823763101</v>
+        <v>-0.08568193278511871</v>
       </c>
       <c r="L191" t="n">
         <v>38979675</v>
       </c>
       <c r="M191" t="n">
-        <v>85.39663543701172</v>
+        <v>85.39663505554199</v>
       </c>
       <c r="N191" t="n">
-        <v>85.44473037719726</v>
+        <v>85.44472961425781</v>
       </c>
     </row>
     <row r="192">
@@ -8698,16 +8698,16 @@
         <v>45838</v>
       </c>
       <c r="B192" t="n">
-        <v>86.8698431811831</v>
+        <v>86.86983558550482</v>
       </c>
       <c r="C192" t="n">
-        <v>87.44330855517018</v>
+        <v>87.44330090934953</v>
       </c>
       <c r="D192" t="n">
-        <v>86.62266061067972</v>
+        <v>86.62265303661445</v>
       </c>
       <c r="E192" t="n">
-        <v>87.25544738769531</v>
+        <v>87.25543975830078</v>
       </c>
       <c r="F192" t="n">
         <v>53695200</v>
@@ -8722,19 +8722,19 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>0.009840891561765153</v>
+        <v>0.009840892430695414</v>
       </c>
       <c r="K192" t="n">
-        <v>-0.07668407176432157</v>
+        <v>-0.07668422703821576</v>
       </c>
       <c r="L192" t="n">
         <v>39212330</v>
       </c>
       <c r="M192" t="n">
-        <v>85.50984497070313</v>
+        <v>85.50984420776368</v>
       </c>
       <c r="N192" t="n">
-        <v>85.45639877319336</v>
+        <v>85.45639816284179</v>
       </c>
     </row>
     <row r="193">
@@ -8766,19 +8766,19 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>0.002479464001386322</v>
+        <v>0.00247955165565017</v>
       </c>
       <c r="K193" t="n">
-        <v>-0.07439474315835459</v>
+        <v>-0.0743948178846805</v>
       </c>
       <c r="L193" t="n">
         <v>38849705</v>
       </c>
       <c r="M193" t="n">
-        <v>85.67342109680176</v>
+        <v>85.67341995239258</v>
       </c>
       <c r="N193" t="n">
-        <v>85.48770477294921</v>
+        <v>85.48770431518555</v>
       </c>
     </row>
     <row r="194">
@@ -8813,16 +8813,16 @@
         <v>-0.006353453606129822</v>
       </c>
       <c r="K194" t="n">
-        <v>-0.08027553321528791</v>
+        <v>-0.08027560746684348</v>
       </c>
       <c r="L194" t="n">
         <v>39132250</v>
       </c>
       <c r="M194" t="n">
-        <v>85.81662483215332</v>
+        <v>85.81662406921387</v>
       </c>
       <c r="N194" t="n">
-        <v>85.53792831420898</v>
+        <v>85.53792785644531</v>
       </c>
     </row>
     <row r="195">
@@ -8857,16 +8857,16 @@
         <v>-0.006965167578689369</v>
       </c>
       <c r="K195" t="n">
-        <v>-0.08668156825266415</v>
+        <v>-0.0866816419870452</v>
       </c>
       <c r="L195" t="n">
         <v>37596630</v>
       </c>
       <c r="M195" t="n">
-        <v>85.86133728027343</v>
+        <v>85.86133651733398</v>
       </c>
       <c r="N195" t="n">
-        <v>85.56662216186524</v>
+        <v>85.56662170410156</v>
       </c>
     </row>
     <row r="196">
@@ -8901,16 +8901,16 @@
         <v>-0.009543432278394159</v>
       </c>
       <c r="K196" t="n">
-        <v>-0.09539776085465401</v>
+        <v>-0.09539783388535594</v>
       </c>
       <c r="L196" t="n">
         <v>37629130</v>
       </c>
       <c r="M196" t="n">
-        <v>85.86189880371094</v>
+        <v>85.86189842224121</v>
       </c>
       <c r="N196" t="n">
-        <v>85.56235366821289</v>
+        <v>85.56235321044922</v>
       </c>
     </row>
     <row r="197">
@@ -8945,16 +8945,16 @@
         <v>-0.00127702522823181</v>
       </c>
       <c r="K197" t="n">
-        <v>-0.09655296073555764</v>
+        <v>-0.0965530336729975</v>
       </c>
       <c r="L197" t="n">
         <v>37292975</v>
       </c>
       <c r="M197" t="n">
-        <v>85.91138229370117</v>
+        <v>85.91138191223145</v>
       </c>
       <c r="N197" t="n">
-        <v>85.53784301757813</v>
+        <v>85.53784271240234</v>
       </c>
     </row>
     <row r="198">
@@ -8989,16 +8989,16 @@
         <v>0.01046142320035726</v>
       </c>
       <c r="K198" t="n">
-        <v>-0.08710161891870249</v>
+        <v>-0.08710169261917178</v>
       </c>
       <c r="L198" t="n">
         <v>37456030</v>
       </c>
       <c r="M198" t="n">
-        <v>86.00107460021972</v>
+        <v>86.00107421875001</v>
       </c>
       <c r="N198" t="n">
-        <v>85.51843704223633</v>
+        <v>85.51843658447265</v>
       </c>
     </row>
     <row r="199">
@@ -9033,16 +9033,16 @@
         <v>0.0006901487021064856</v>
       </c>
       <c r="K199" t="n">
-        <v>-0.08647158328584414</v>
+        <v>-0.08647165703717774</v>
       </c>
       <c r="L199" t="n">
         <v>37439455</v>
       </c>
       <c r="M199" t="n">
-        <v>86.07199249267578</v>
+        <v>86.07199172973633</v>
       </c>
       <c r="N199" t="n">
-        <v>85.48922943115234</v>
+        <v>85.48922897338868</v>
       </c>
     </row>
     <row r="200">
@@ -9077,16 +9077,16 @@
         <v>-0.01379460337278593</v>
       </c>
       <c r="K200" t="n">
-        <v>-0.099073345464185</v>
+        <v>-0.09907341819814819</v>
       </c>
       <c r="L200" t="n">
         <v>37660955</v>
       </c>
       <c r="M200" t="n">
-        <v>86.07051162719726</v>
+        <v>86.07051086425781</v>
       </c>
       <c r="N200" t="n">
-        <v>85.42148239135742</v>
+        <v>85.42148162841796</v>
       </c>
     </row>
     <row r="201">
@@ -9121,16 +9121,16 @@
         <v>-0.002098137904849695</v>
       </c>
       <c r="K201" t="n">
-        <v>-0.100963613827556</v>
+        <v>-0.1009636864089133</v>
       </c>
       <c r="L201" t="n">
         <v>36740540</v>
       </c>
       <c r="M201" t="n">
-        <v>86.00917930603028</v>
+        <v>86.00917854309083</v>
       </c>
       <c r="N201" t="n">
-        <v>85.36449172973633</v>
+        <v>85.36449096679688</v>
       </c>
     </row>
     <row r="202">
@@ -9165,16 +9165,16 @@
         <v>-0.00700843794520567</v>
       </c>
       <c r="K202" t="n">
-        <v>-0.1072644545505276</v>
+        <v>-0.1072645266232028</v>
       </c>
       <c r="L202" t="n">
         <v>36294590</v>
       </c>
       <c r="M202" t="n">
-        <v>85.95960121154785</v>
+        <v>85.95960083007813</v>
       </c>
       <c r="N202" t="n">
-        <v>85.30449707031249</v>
+        <v>85.30449645996094</v>
       </c>
     </row>
     <row r="203">
@@ -9209,16 +9209,16 @@
         <v>0.001411472044705597</v>
       </c>
       <c r="K203" t="n">
-        <v>-0.1060043832848107</v>
+        <v>-0.1060044554592144</v>
       </c>
       <c r="L203" t="n">
         <v>37769145</v>
       </c>
       <c r="M203" t="n">
-        <v>85.95898742675782</v>
+        <v>85.95898666381837</v>
       </c>
       <c r="N203" t="n">
-        <v>85.26579727172852</v>
+        <v>85.26579650878907</v>
       </c>
     </row>
     <row r="204">
@@ -9253,16 +9253,16 @@
         <v>-0.0002348836648570218</v>
       </c>
       <c r="K204" t="n">
-        <v>-0.1062143682516309</v>
+        <v>-0.106214440409082</v>
       </c>
       <c r="L204" t="n">
         <v>37636840</v>
       </c>
       <c r="M204" t="n">
-        <v>85.90596733093261</v>
+        <v>85.90596656799316</v>
       </c>
       <c r="N204" t="n">
-        <v>85.2363542175293</v>
+        <v>85.23635375976562</v>
       </c>
     </row>
     <row r="205">
@@ -9297,16 +9297,16 @@
         <v>0.001527418655246526</v>
       </c>
       <c r="K205" t="n">
-        <v>-0.1048491834039071</v>
+        <v>-0.1048492556715729</v>
       </c>
       <c r="L205" t="n">
         <v>37084135</v>
       </c>
       <c r="M205" t="n">
-        <v>85.85198211669922</v>
+        <v>85.85198135375977</v>
       </c>
       <c r="N205" t="n">
-        <v>85.20377822875976</v>
+        <v>85.2037777709961</v>
       </c>
     </row>
     <row r="206">
@@ -9341,16 +9341,16 @@
         <v>0.00891604487640385</v>
       </c>
       <c r="K206" t="n">
-        <v>-0.09686797855198681</v>
+        <v>-0.09686805146399435</v>
       </c>
       <c r="L206" t="n">
         <v>37785015</v>
       </c>
       <c r="M206" t="n">
-        <v>85.84361915588379</v>
+        <v>85.84361839294434</v>
       </c>
       <c r="N206" t="n">
-        <v>85.1789974975586</v>
+        <v>85.17899703979492</v>
       </c>
     </row>
     <row r="207">
@@ -9385,16 +9385,16 @@
         <v>0.006046446434420094</v>
       </c>
       <c r="K207" t="n">
-        <v>-0.09140723916109184</v>
+        <v>-0.09140731251395795</v>
       </c>
       <c r="L207" t="n">
         <v>37701940</v>
       </c>
       <c r="M207" t="n">
-        <v>85.847216796875</v>
+        <v>85.84721603393555</v>
       </c>
       <c r="N207" t="n">
-        <v>85.18384521484376</v>
+        <v>85.18384460449219</v>
       </c>
     </row>
     <row r="208">
@@ -9429,16 +9429,16 @@
         <v>-0.005547797585579106</v>
       </c>
       <c r="K208" t="n">
-        <v>-0.09644792788594858</v>
+        <v>-0.09644800083186789</v>
       </c>
       <c r="L208" t="n">
         <v>37604410</v>
       </c>
       <c r="M208" t="n">
-        <v>85.79585113525391</v>
+        <v>85.79585037231445</v>
       </c>
       <c r="N208" t="n">
-        <v>85.17660430908204</v>
+        <v>85.17660369873047</v>
       </c>
     </row>
     <row r="209">
@@ -9473,16 +9473,16 @@
         <v>-0.001743486986481968</v>
       </c>
       <c r="K209" t="n">
-        <v>-0.0980232591652882</v>
+        <v>-0.09802333198402724</v>
       </c>
       <c r="L209" t="n">
         <v>37545385</v>
       </c>
       <c r="M209" t="n">
-        <v>85.73160400390626</v>
+        <v>85.73160324096679</v>
       </c>
       <c r="N209" t="n">
-        <v>85.18234420776368</v>
+        <v>85.18234344482421</v>
       </c>
     </row>
     <row r="210">
@@ -9517,16 +9517,16 @@
         <v>0.006287175229444442</v>
       </c>
       <c r="K210" t="n">
-        <v>-0.09235237334277713</v>
+        <v>-0.09235244661934039</v>
       </c>
       <c r="L210" t="n">
         <v>37381820</v>
       </c>
       <c r="M210" t="n">
-        <v>85.67240066528321</v>
+        <v>85.67239990234376</v>
       </c>
       <c r="N210" t="n">
-        <v>85.20569793701172</v>
+        <v>85.20569702148437</v>
       </c>
     </row>
     <row r="211">
@@ -9561,16 +9561,16 @@
         <v>-0.006479244385830474</v>
       </c>
       <c r="K211" t="n">
-        <v>-0.09823324413210832</v>
+        <v>-0.09823331693389481</v>
       </c>
       <c r="L211" t="n">
         <v>34972770</v>
       </c>
       <c r="M211" t="n">
-        <v>85.61309356689453</v>
+        <v>85.6130931854248</v>
       </c>
       <c r="N211" t="n">
-        <v>85.22916610717773</v>
+        <v>85.2291651916504</v>
       </c>
     </row>
     <row r="212">
@@ -9605,7 +9605,7 @@
         <v>0.01688602999599365</v>
       </c>
       <c r="K212" t="n">
-        <v>-0.08300598364313327</v>
+        <v>-0.08300605767425284</v>
       </c>
       <c r="L212" t="n">
         <v>34679425</v>
@@ -9614,7 +9614,7 @@
         <v>85.58322181701661</v>
       </c>
       <c r="N212" t="n">
-        <v>85.26663848876953</v>
+        <v>85.26663757324219</v>
       </c>
     </row>
     <row r="213">
@@ -9649,7 +9649,7 @@
         <v>-0.005153437017181628</v>
       </c>
       <c r="K213" t="n">
-        <v>-0.08773165455156084</v>
+        <v>-0.0877317282011657</v>
       </c>
       <c r="L213" t="n">
         <v>34764940</v>
@@ -9658,7 +9658,7 @@
         <v>85.5202033996582</v>
       </c>
       <c r="N213" t="n">
-        <v>85.2906477355957</v>
+        <v>85.29064697265625</v>
       </c>
     </row>
     <row r="214">
@@ -9693,7 +9693,7 @@
         <v>0.0005754916147959754</v>
       </c>
       <c r="K214" t="n">
-        <v>-0.08720665176831144</v>
+        <v>-0.08720672546030106</v>
       </c>
       <c r="L214" t="n">
         <v>35286535</v>
@@ -9702,7 +9702,7 @@
         <v>85.48745307922363</v>
       </c>
       <c r="N214" t="n">
-        <v>85.32057464599609</v>
+        <v>85.32057403564453</v>
       </c>
     </row>
     <row r="215">
@@ -9737,7 +9737,7 @@
         <v>0.01421662956233583</v>
       </c>
       <c r="K215" t="n">
-        <v>-0.07422980686953728</v>
+        <v>-0.07422988160917865</v>
       </c>
       <c r="L215" t="n">
         <v>37121805</v>
@@ -9746,7 +9746,7 @@
         <v>85.54628906249999</v>
       </c>
       <c r="N215" t="n">
-        <v>85.38724319458008</v>
+        <v>85.38724258422852</v>
       </c>
     </row>
     <row r="216">
@@ -9781,7 +9781,7 @@
         <v>0.002732850876757009</v>
       </c>
       <c r="K216" t="n">
-        <v>-0.07169981498556521</v>
+        <v>-0.07169988992945886</v>
       </c>
       <c r="L216" t="n">
         <v>37027330</v>
@@ -9790,7 +9790,7 @@
         <v>85.65826454162598</v>
       </c>
       <c r="N216" t="n">
-        <v>85.48745727539062</v>
+        <v>85.48745681762695</v>
       </c>
     </row>
     <row r="217">
@@ -9825,7 +9825,7 @@
         <v>0.003066143328111837</v>
       </c>
       <c r="K217" t="n">
-        <v>-0.06885351356679825</v>
+        <v>-0.06885358874048053</v>
       </c>
       <c r="L217" t="n">
         <v>36886285</v>
@@ -9834,7 +9834,7 @@
         <v>85.78914756774903</v>
       </c>
       <c r="N217" t="n">
-        <v>85.58438262939453</v>
+        <v>85.58438201904296</v>
       </c>
     </row>
     <row r="218">
@@ -9869,7 +9869,7 @@
         <v>-0.005773842656415007</v>
       </c>
       <c r="K218" t="n">
-        <v>-0.07422980686953728</v>
+        <v>-0.07422988160917854</v>
       </c>
       <c r="L218" t="n">
         <v>37524655</v>
@@ -9878,7 +9878,7 @@
         <v>85.8499683380127</v>
       </c>
       <c r="N218" t="n">
-        <v>85.66838821411133</v>
+        <v>85.66838775634766</v>
       </c>
     </row>
     <row r="219">
@@ -9913,7 +9913,7 @@
         <v>-0.001708097202215764</v>
       </c>
       <c r="K219" t="n">
-        <v>-0.07581111234631821</v>
+        <v>-0.07581118695829681</v>
       </c>
       <c r="L219" t="n">
         <v>37759035</v>
@@ -9922,7 +9922,7 @@
         <v>85.9003402709961</v>
       </c>
       <c r="N219" t="n">
-        <v>85.72615783691407</v>
+        <v>85.72615722656251</v>
       </c>
     </row>
     <row r="220">
@@ -9957,7 +9957,7 @@
         <v>-0.004334373817160508</v>
       </c>
       <c r="K220" t="n">
-        <v>-0.079816892463075</v>
+        <v>-0.07981696675165739</v>
       </c>
       <c r="L220" t="n">
         <v>36800610</v>
@@ -9966,7 +9966,7 @@
         <v>85.99132919311523</v>
       </c>
       <c r="N220" t="n">
-        <v>85.78364562988281</v>
+        <v>85.78364517211914</v>
       </c>
     </row>
     <row r="221">
@@ -10001,7 +10001,7 @@
         <v>0.001145557781006223</v>
       </c>
       <c r="K221" t="n">
-        <v>-0.07876276954428563</v>
+        <v>-0.07876284391796984</v>
       </c>
       <c r="L221" t="n">
         <v>36575180</v>
@@ -10010,7 +10010,7 @@
         <v>86.09623069763184</v>
       </c>
       <c r="N221" t="n">
-        <v>85.82756164550781</v>
+        <v>85.82756134033202</v>
       </c>
     </row>
     <row r="222">
@@ -10045,7 +10045,7 @@
         <v>-0.005034879508348022</v>
       </c>
       <c r="K222" t="n">
-        <v>-0.08340108799823442</v>
+        <v>-0.08340116199745606</v>
       </c>
       <c r="L222" t="n">
         <v>36605045</v>
@@ -10054,7 +10054,7 @@
         <v>86.20898780822753</v>
       </c>
       <c r="N222" t="n">
-        <v>85.86014999389648</v>
+        <v>85.8601496887207</v>
       </c>
     </row>
     <row r="223">
@@ -10089,7 +10089,7 @@
         <v>0.008280585491139636</v>
       </c>
       <c r="K223" t="n">
-        <v>-0.07581111234631821</v>
+        <v>-0.07581118695829669</v>
       </c>
       <c r="L223" t="n">
         <v>34846535</v>
@@ -10098,7 +10098,7 @@
         <v>86.35165443420411</v>
       </c>
       <c r="N223" t="n">
-        <v>85.92290344238282</v>
+        <v>85.92290298461914</v>
       </c>
     </row>
     <row r="224">
@@ -10133,7 +10133,7 @@
         <v>-0.007414157026838675</v>
       </c>
       <c r="K224" t="n">
-        <v>-0.08266319388184196</v>
+        <v>-0.0826632679406355</v>
       </c>
       <c r="L224" t="n">
         <v>34922630</v>
@@ -10142,7 +10142,7 @@
         <v>86.46293640136719</v>
       </c>
       <c r="N224" t="n">
-        <v>85.97567214965821</v>
+        <v>85.97567184448242</v>
       </c>
     </row>
     <row r="225">
@@ -10177,7 +10177,7 @@
         <v>-0.007124724481933575</v>
       </c>
       <c r="K225" t="n">
-        <v>-0.0891989658825707</v>
+        <v>-0.08919903941371576</v>
       </c>
       <c r="L225" t="n">
         <v>35363065</v>
@@ -10186,7 +10186,7 @@
         <v>86.53688545227051</v>
       </c>
       <c r="N225" t="n">
-        <v>85.98879913330079</v>
+        <v>85.988798828125</v>
       </c>
     </row>
     <row r="226">
@@ -10221,7 +10221,7 @@
         <v>-0.002893528110806454</v>
       </c>
       <c r="K226" t="n">
-        <v>-0.09183439427814111</v>
+        <v>-0.0918344675965217</v>
       </c>
       <c r="L226" t="n">
         <v>34700965</v>
@@ -10230,7 +10230,7 @@
         <v>86.56066970825195</v>
       </c>
       <c r="N226" t="n">
-        <v>85.99575866699219</v>
+        <v>85.9957585144043</v>
       </c>
     </row>
     <row r="227">
@@ -10265,7 +10265,7 @@
         <v>0.005803849824230101</v>
       </c>
       <c r="K227" t="n">
-        <v>-0.08656353748700052</v>
+        <v>-0.08656361123090994</v>
       </c>
       <c r="L227" t="n">
         <v>34380480</v>
@@ -10274,7 +10274,7 @@
         <v>86.58355674743652</v>
       </c>
       <c r="N227" t="n">
-        <v>86.03443252563477</v>
+        <v>86.03443237304687</v>
       </c>
     </row>
     <row r="228">
@@ -10309,7 +10309,7 @@
         <v>0.002192609347420271</v>
       </c>
       <c r="K228" t="n">
-        <v>-0.08456072816102</v>
+        <v>-0.08456080206662098</v>
       </c>
       <c r="L228" t="n">
         <v>34125680</v>
@@ -10318,7 +10318,7 @@
         <v>86.63972511291504</v>
       </c>
       <c r="N228" t="n">
-        <v>86.07511184692383</v>
+        <v>86.07511169433593</v>
       </c>
     </row>
     <row r="229">
@@ -10353,7 +10353,7 @@
         <v>-0.004951503993101403</v>
       </c>
       <c r="K229" t="n">
-        <v>-0.08909352937097259</v>
+        <v>-0.08909360291062962</v>
       </c>
       <c r="L229" t="n">
         <v>34299635</v>
@@ -10362,7 +10362,7 @@
         <v>86.68191909790039</v>
       </c>
       <c r="N229" t="n">
-        <v>86.09852340698242</v>
+        <v>86.09852310180663</v>
       </c>
     </row>
     <row r="230">
@@ -10397,7 +10397,7 @@
         <v>0.007406517838507209</v>
       </c>
       <c r="K230" t="n">
-        <v>-0.08234688434704707</v>
+        <v>-0.08234695843137685</v>
       </c>
       <c r="L230" t="n">
         <v>35433420</v>
@@ -10406,7 +10406,7 @@
         <v>86.72919616699218</v>
       </c>
       <c r="N230" t="n">
-        <v>86.12954483032226</v>
+        <v>86.12954452514649</v>
       </c>
     </row>
     <row r="231">
@@ -10441,7 +10441,7 @@
         <v>-0.002871922244491176</v>
       </c>
       <c r="K231" t="n">
-        <v>-0.08498231274261747</v>
+        <v>-0.08498238661418278</v>
       </c>
       <c r="L231" t="n">
         <v>35443390</v>
@@ -10450,7 +10450,7 @@
         <v>86.7918083190918</v>
       </c>
       <c r="N231" t="n">
-        <v>86.13521728515624</v>
+        <v>86.13521697998047</v>
       </c>
     </row>
     <row r="232">
@@ -10485,7 +10485,7 @@
         <v>-0.0005760564335903773</v>
       </c>
       <c r="K232" t="n">
-        <v>-0.08550941456821104</v>
+        <v>-0.08550948839722217</v>
       </c>
       <c r="L232" t="n">
         <v>34564940</v>
@@ -10494,7 +10494,7 @@
         <v>86.77997932434081</v>
       </c>
       <c r="N232" t="n">
-        <v>86.1565040588379</v>
+        <v>86.15650390624999</v>
       </c>
     </row>
     <row r="233">
@@ -10529,7 +10529,7 @@
         <v>-0.001152688650470579</v>
       </c>
       <c r="K233" t="n">
-        <v>-0.08656353748700041</v>
+        <v>-0.08656361123090972</v>
       </c>
       <c r="L233" t="n">
         <v>34438535</v>
@@ -10538,7 +10538,7 @@
         <v>86.78549880981446</v>
       </c>
       <c r="N233" t="n">
-        <v>86.19300262451172</v>
+        <v>86.19300231933593</v>
       </c>
     </row>
     <row r="234">
@@ -10573,7 +10573,7 @@
         <v>0.006578181574887099</v>
       </c>
       <c r="K234" t="n">
-        <v>-0.08055478657946735</v>
+        <v>-0.08055486080847751</v>
       </c>
       <c r="L234" t="n">
         <v>33558125</v>
@@ -10582,7 +10582,7 @@
         <v>86.81692962646484</v>
       </c>
       <c r="N234" t="n">
-        <v>86.22029235839844</v>
+        <v>86.22029205322265</v>
       </c>
     </row>
     <row r="235">
@@ -10617,7 +10617,7 @@
         <v>-0.007108474368812012</v>
       </c>
       <c r="K235" t="n">
-        <v>-0.08709063931259409</v>
+        <v>-0.08709071301394922</v>
       </c>
       <c r="L235" t="n">
         <v>32470720</v>
@@ -10626,7 +10626,7 @@
         <v>86.75616073608398</v>
       </c>
       <c r="N235" t="n">
-        <v>86.23226272583008</v>
+        <v>86.23226242065429</v>
       </c>
     </row>
     <row r="236">
@@ -10661,7 +10661,7 @@
         <v>-0.007441648469858619</v>
       </c>
       <c r="K236" t="n">
-        <v>-0.09388418985967317</v>
+        <v>-0.09388426301256869</v>
       </c>
       <c r="L236" t="n">
         <v>33087490</v>
@@ -10670,7 +10670,7 @@
         <v>86.65133705139161</v>
       </c>
       <c r="N236" t="n">
-        <v>86.23455703735351</v>
+        <v>86.23455673217774</v>
       </c>
     </row>
     <row r="237">
@@ -10705,7 +10705,7 @@
         <v>0.01097749003336235</v>
       </c>
       <c r="K237" t="n">
-        <v>-0.08393731258478565</v>
+        <v>-0.08393738654071636</v>
       </c>
       <c r="L237" t="n">
         <v>34283160</v>
@@ -10714,7 +10714,7 @@
         <v>86.58006439208984</v>
       </c>
       <c r="N237" t="n">
-        <v>86.25011459350586</v>
+        <v>86.25011428833008</v>
       </c>
     </row>
     <row r="238">
@@ -10749,7 +10749,7 @@
         <v>0.007623930512140609</v>
       </c>
       <c r="K238" t="n">
-        <v>-0.07695331431116725</v>
+        <v>-0.07695338883093283</v>
       </c>
       <c r="L238" t="n">
         <v>34178775</v>
@@ -10758,7 +10758,7 @@
         <v>86.56719551086425</v>
       </c>
       <c r="N238" t="n">
-        <v>86.26641403198242</v>
+        <v>86.26641372680665</v>
       </c>
     </row>
     <row r="239">
@@ -10793,7 +10793,7 @@
         <v>0.01524698097531885</v>
       </c>
       <c r="K239" t="n">
-        <v>-0.06287963905513849</v>
+        <v>-0.06287971471110554</v>
       </c>
       <c r="L239" t="n">
         <v>36201520</v>
@@ -10802,7 +10802,7 @@
         <v>86.62829818725587</v>
       </c>
       <c r="N239" t="n">
-        <v>86.30713821411133</v>
+        <v>86.30713790893554</v>
       </c>
     </row>
     <row r="240">
@@ -10837,7 +10837,7 @@
         <v>0.01332430372296534</v>
       </c>
       <c r="K240" t="n">
-        <v>-0.05039316274093431</v>
+        <v>-0.05039323940496443</v>
       </c>
       <c r="L240" t="n">
         <v>37848640</v>
@@ -10846,7 +10846,7 @@
         <v>86.76732864379883</v>
       </c>
       <c r="N240" t="n">
-        <v>86.36276168823242</v>
+        <v>86.36276138305664</v>
       </c>
     </row>
     <row r="241">
@@ -10881,7 +10881,7 @@
         <v>-0.005683023389527309</v>
       </c>
       <c r="K241" t="n">
-        <v>-0.05578980060793259</v>
+        <v>-0.05578987683627923</v>
       </c>
       <c r="L241" t="n">
         <v>38699915</v>
@@ -10890,7 +10890,7 @@
         <v>86.87587852478028</v>
       </c>
       <c r="N241" t="n">
-        <v>86.41925888061523</v>
+        <v>86.41925872802734</v>
       </c>
     </row>
     <row r="242">
@@ -10925,7 +10925,7 @@
         <v>0.005715504736628629</v>
       </c>
       <c r="K242" t="n">
-        <v>-0.05039316274093419</v>
+        <v>-0.05039323940496432</v>
       </c>
       <c r="L242" t="n">
         <v>38682980</v>
@@ -10969,7 +10969,7 @@
         <v>0.006685964880809525</v>
       </c>
       <c r="K243" t="n">
-        <v>-0.04404412477644348</v>
+        <v>-0.04404420195304659</v>
       </c>
       <c r="L243" t="n">
         <v>39476825</v>
@@ -11013,7 +11013,7 @@
         <v>-0.004317017992670258</v>
       </c>
       <c r="K244" t="n">
-        <v>-0.04817100348998238</v>
+        <v>-0.04817108033341277</v>
       </c>
       <c r="L244" t="n">
         <v>39455385</v>
@@ -11057,7 +11057,7 @@
         <v>0.002334705069395593</v>
       </c>
       <c r="K245" t="n">
-        <v>-0.04594876350663268</v>
+        <v>-0.0459488405294699</v>
       </c>
       <c r="L245" t="n">
         <v>38879210</v>
@@ -11101,7 +11101,7 @@
         <v>0.002107307057392704</v>
       </c>
       <c r="K246" t="n">
-        <v>-0.04393828460285598</v>
+        <v>-0.04393836178800392</v>
       </c>
       <c r="L246" t="n">
         <v>38880045</v>
@@ -11145,7 +11145,7 @@
         <v>-0.002545608538166655</v>
       </c>
       <c r="K247" t="n">
-        <v>-0.04637204346858526</v>
+        <v>-0.04637212045725003</v>
       </c>
       <c r="L247" t="n">
         <v>39897105</v>
@@ -11189,7 +11189,7 @@
         <v>-0.01031957697328245</v>
       </c>
       <c r="K248" t="n">
-        <v>-0.05621308056988528</v>
+        <v>-0.05621315676405958</v>
       </c>
       <c r="L248" t="n">
         <v>41387375</v>
@@ -11233,7 +11233,7 @@
         <v>-0.001906108237316517</v>
       </c>
       <c r="K249" t="n">
-        <v>-0.05801204059128262</v>
+        <v>-0.05801211664022254</v>
       </c>
       <c r="L249" t="n">
         <v>41580640</v>
@@ -11277,7 +11277,7 @@
         <v>-0.003594694528098907</v>
       </c>
       <c r="K250" t="n">
-        <v>-0.06139819955450421</v>
+        <v>-0.06139827533007136</v>
       </c>
       <c r="L250" t="n">
         <v>40324955</v>
@@ -11306,7 +11306,7 @@
         <v>89.31999969482422</v>
       </c>
       <c r="F251" t="n">
-        <v>25972589</v>
+        <v>26663400</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -11321,10 +11321,10 @@
         <v>0.006989884643894717</v>
       </c>
       <c r="K251" t="n">
-        <v>-0.05483748124283827</v>
+        <v>-0.05483755754806796</v>
       </c>
       <c r="L251" t="n">
-        <v>40272989.45</v>
+        <v>40307530</v>
       </c>
       <c r="M251" t="n">
         <v>88.48774490356445</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25972589</v>
+        <v>26663400</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
